--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="24690" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>DESCRIBE</t>
   </si>
   <si>
+    <t>prefabName</t>
+  </si>
+  <si>
     <t>iSeeDeadPeople</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
     <t>默认是否处于灵视状态</t>
   </si>
   <si>
@@ -113,34 +119,52 @@
     <t>一年级教师办公室</t>
   </si>
   <si>
+    <t>Office1</t>
+  </si>
+  <si>
     <t>310001,310002</t>
   </si>
   <si>
     <t>一年级走廊</t>
   </si>
   <si>
+    <t>Corridor1</t>
+  </si>
+  <si>
     <t>310003,310004,310005,310006,310007</t>
   </si>
   <si>
     <t>超豪华大厕所</t>
   </si>
   <si>
+    <t>Office2</t>
+  </si>
+  <si>
     <t>310008,310009</t>
   </si>
   <si>
     <t>一年二班</t>
   </si>
   <si>
+    <t>ClassRoom1</t>
+  </si>
+  <si>
     <t>310010,310011</t>
   </si>
   <si>
     <t>一年一班</t>
   </si>
   <si>
+    <t>ClassRoom2</t>
+  </si>
+  <si>
     <t>310012,310013</t>
   </si>
   <si>
     <t>“摇篮”</t>
+  </si>
+  <si>
+    <t>SafetyRoom</t>
   </si>
   <si>
     <t>310014</t>
@@ -1086,25 +1110,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="26.7333333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.525" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="1" customWidth="1"/>
-    <col min="11" max="15" width="9" style="1"/>
+    <col min="5" max="5" width="17.3916666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.525" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="1" customWidth="1"/>
+    <col min="12" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="27" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1123,10 +1148,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1135,278 +1160,308 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:10">
+    <row r="4" ht="40.5" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>300001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>300002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>300003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>300004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>300005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>3</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>300006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>

--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24690" windowHeight="9900"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -62,6 +62,12 @@
     <t>byTime</t>
   </si>
   <si>
+    <t>monstersIDList</t>
+  </si>
+  <si>
+    <t>dropRuleIDList</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -114,6 +120,12 @@
   </si>
   <si>
     <t>可见度是否按环境（时间）变化</t>
+  </si>
+  <si>
+    <t>房间里有哪些怪物</t>
+  </si>
+  <si>
+    <t>房间里有哪些交互规则</t>
   </si>
   <si>
     <t>一年级教师办公室</t>
@@ -1110,10 +1122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1126,10 +1138,12 @@
     <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.25" style="1" customWidth="1"/>
-    <col min="12" max="16" width="9" style="1"/>
+    <col min="12" max="12" width="20.6416666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.65" style="1" customWidth="1"/>
+    <col min="14" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:11">
+    <row r="1" ht="27" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1163,108 +1177,132 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:11">
+    <row r="4" ht="40.5" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1273,13 +1311,13 @@
         <v>300001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1288,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1306,13 +1344,13 @@
         <v>300002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1321,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1339,13 +1377,13 @@
         <v>300003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1354,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1372,13 +1410,13 @@
         <v>300004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1387,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1405,13 +1443,13 @@
         <v>300005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1420,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1438,13 +1476,13 @@
         <v>300006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1453,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>

--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16485" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -68,6 +68,12 @@
     <t>dropRuleIDList</t>
   </si>
   <si>
+    <t>roomX</t>
+  </si>
+  <si>
+    <t>roomY</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
     <t>(list#sep=,),int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -126,6 +135,12 @@
   </si>
   <si>
     <t>房间里有哪些交互规则</t>
+  </si>
+  <si>
+    <t>房间宽度</t>
+  </si>
+  <si>
+    <t>房间长度</t>
   </si>
   <si>
     <t>一年级教师办公室</t>
@@ -1122,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1140,10 +1155,12 @@
     <col min="11" max="11" width="10.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.6416666666667" style="1" customWidth="1"/>
     <col min="13" max="13" width="20.65" style="1" customWidth="1"/>
-    <col min="14" max="16" width="9" style="1"/>
+    <col min="14" max="14" width="17.3833333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:13">
+    <row r="1" ht="27" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1183,141 +1200,165 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:13">
+    <row r="4" ht="40.5" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>300001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1326,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1337,20 +1378,26 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
+      <c r="N5" s="1">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>300002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1359,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1370,20 +1417,26 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
+      <c r="N6" s="1">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>300003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1392,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1403,20 +1456,26 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
+      <c r="N7" s="1">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>300004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1425,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1436,20 +1495,26 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
+      <c r="N8" s="1">
+        <v>18</v>
+      </c>
+      <c r="O8" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>300005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1458,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1469,20 +1534,26 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
+      <c r="N9" s="1">
+        <v>18</v>
+      </c>
+      <c r="O9" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>300006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1491,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1501,6 +1572,12 @@
       </c>
       <c r="K10" s="1">
         <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>12</v>
+      </c>
+      <c r="O10" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">

--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC72F252-EA99-4918-AA99-08943DE7AC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16485" windowHeight="6030"/>
+    <workbookView xWindow="4140" yWindow="465" windowWidth="22590" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -200,361 +193,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -562,251 +219,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,61 +242,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1131,36 +502,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="26.7333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.3916666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.525" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6416666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.65" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.3833333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:15">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:15">
+    <row r="4" spans="1:15" ht="60">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1421,7 +792,7 @@
         <v>30</v>
       </c>
       <c r="O6" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1580,42 +951,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:15">
       <c r="B16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC72F252-EA99-4918-AA99-08943DE7AC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="465" windowWidth="22590" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27765" windowHeight="8805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -61,6 +68,9 @@
     <t>dropRuleIDList</t>
   </si>
   <si>
+    <t>dropType</t>
+  </si>
+  <si>
     <t>roomX</t>
   </si>
   <si>
@@ -82,6 +92,9 @@
     <t>(list#sep=,),int</t>
   </si>
   <si>
+    <t>(list#sep=,),bool</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
@@ -127,7 +140,13 @@
     <t>房间里有哪些怪物</t>
   </si>
   <si>
-    <t>房间里有哪些交互规则</t>
+    <t>这里放：
+①交互后掉落的规则（比如翻箱倒柜），哪怕只掉一个
+②房间里有哪些随机生成在地板上的东西
+③对于不随机生成在地板上的物品，直接写物品ID</t>
+  </si>
+  <si>
+    <t>1为交互掉落,0为独立掉落</t>
   </si>
   <si>
     <t>房间宽度</t>
@@ -145,6 +164,12 @@
     <t>310001,310002</t>
   </si>
   <si>
+    <t>230002,230002,230002,230002,230001</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0</t>
+  </si>
+  <si>
     <t>一年级走廊</t>
   </si>
   <si>
@@ -154,6 +179,12 @@
     <t>310003,310004,310005,310006,310007</t>
   </si>
   <si>
+    <t>240001,910001,910001</t>
+  </si>
+  <si>
+    <t>0,1,1</t>
+  </si>
+  <si>
     <t>超豪华大厕所</t>
   </si>
   <si>
@@ -163,6 +194,12 @@
     <t>310008,310009</t>
   </si>
   <si>
+    <t>910001</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
     <t>一年二班</t>
   </si>
   <si>
@@ -170,6 +207,15 @@
   </si>
   <si>
     <t>310010,310011</t>
+  </si>
+  <si>
+    <t>400001,400001,400001</t>
+  </si>
+  <si>
+    <t>910015,910008,910010,910027</t>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
   </si>
   <si>
     <t>一年一班</t>
@@ -193,25 +239,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -219,9 +601,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -242,17 +866,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,36 +1170,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
+    <col min="3" max="3" width="26.7333333333333" customWidth="1"/>
+    <col min="5" max="5" width="17.3916666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.525" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="32.6083333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="43.0333333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.3166666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.3833333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" ht="27" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -568,7 +1237,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -577,159 +1246,171 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60">
+    <row r="4" ht="89" customHeight="1" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>300001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -738,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -749,26 +1430,33 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="1">
+      <c r="L5" s="1"/>
+      <c r="M5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="1">
         <v>12</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>300002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -777,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -788,26 +1476,33 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
+      <c r="L6" s="1"/>
+      <c r="M6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1">
         <v>30</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>300003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -816,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -827,26 +1522,32 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1">
+      <c r="M7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="1">
         <v>12</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>300004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -855,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -866,26 +1567,35 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
+      <c r="L8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="1">
         <v>18</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>300005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -894,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -905,26 +1615,35 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
+      <c r="L9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="1">
         <v>18</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>300006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -933,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -944,48 +1663,49 @@
       <c r="K10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>12</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="2:2">
       <c r="B16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="8805"/>
+    <workbookView windowWidth="27765" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -1178,8 +1178,8 @@
   <sheetPr/>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1304,7 +1304,9 @@
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>

--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="8625"/>
+    <workbookView windowWidth="16455" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -140,13 +140,7 @@
     <t>房间里有哪些怪物</t>
   </si>
   <si>
-    <t>这里放：
-①交互后掉落的规则（比如翻箱倒柜），哪怕只掉一个
-②房间里有哪些随机生成在地板上的东西
-③对于不随机生成在地板上的物品，直接写物品ID</t>
-  </si>
-  <si>
-    <t>1为交互掉落,0为独立掉落</t>
+    <t>1为交互掉落，0为不是交互后掉落的</t>
   </si>
   <si>
     <t>房间宽度</t>
@@ -164,7 +158,7 @@
     <t>310001,310002</t>
   </si>
   <si>
-    <t>230002,230002,230002,230002,230001</t>
+    <t>230001,230002,230002,230002,230002</t>
   </si>
   <si>
     <t>0,0,0,0,0</t>
@@ -179,10 +173,10 @@
     <t>310003,310004,310005,310006,310007</t>
   </si>
   <si>
-    <t>240001,910001,910001</t>
-  </si>
-  <si>
-    <t>0,1,1</t>
+    <t>240001,910001,910001,910008</t>
+  </si>
+  <si>
+    <t>0,0,1,1</t>
   </si>
   <si>
     <t>超豪华大厕所</t>
@@ -194,7 +188,7 @@
     <t>310008,310009</t>
   </si>
   <si>
-    <t>910001</t>
+    <t>910001,910003</t>
   </si>
   <si>
     <t>0,1</t>
@@ -212,7 +206,7 @@
     <t>400001,400001,400001</t>
   </si>
   <si>
-    <t>910015,910008,910010,910027</t>
+    <t>250001,250004,250006,260005</t>
   </si>
   <si>
     <t>1,1,1,1</t>
@@ -1178,8 +1172,8 @@
   <sheetPr/>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1387,17 +1381,15 @@
       <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1406,22 +1398,22 @@
         <v>300001</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1434,10 +1426,10 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="O5" s="1">
         <v>12</v>
@@ -1452,22 +1444,22 @@
         <v>300002</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1480,10 +1472,10 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="O6" s="1">
         <v>30</v>
@@ -1498,22 +1490,22 @@
         <v>300003</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1525,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="O7" s="1">
         <v>12</v>
@@ -1543,22 +1535,22 @@
         <v>300004</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1570,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="O8" s="1">
         <v>18</v>
@@ -1591,22 +1583,22 @@
         <v>300005</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1618,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="O9" s="1">
         <v>18</v>
@@ -1639,22 +1631,22 @@
         <v>300006</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>

--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16455" windowHeight="12255"/>
+    <workbookView windowWidth="16395" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="140">
   <si>
     <t>##var</t>
   </si>
@@ -140,13 +140,16 @@
     <t>房间里有哪些怪物</t>
   </si>
   <si>
+    <t>掉落规则</t>
+  </si>
+  <si>
     <t>1为交互掉落，0为不是交互后掉落的</t>
   </si>
   <si>
-    <t>房间宽度</t>
-  </si>
-  <si>
-    <t>房间长度</t>
+    <t>房间左右宽度</t>
+  </si>
+  <si>
+    <t>房间上下长度</t>
   </si>
   <si>
     <t>一年级教师办公室</t>
@@ -228,6 +231,222 @@
   </si>
   <si>
     <t>310014</t>
+  </si>
+  <si>
+    <t>F1_Mroom_Natalia</t>
+  </si>
+  <si>
+    <t>310016</t>
+  </si>
+  <si>
+    <t>F1_hall_1</t>
+  </si>
+  <si>
+    <t>310017,310018,310019.310020,310021,310022</t>
+  </si>
+  <si>
+    <t>F1_Mroom_1</t>
+  </si>
+  <si>
+    <t>310024</t>
+  </si>
+  <si>
+    <t>F1_Mroom_2</t>
+  </si>
+  <si>
+    <t>310025,310026,310027</t>
+  </si>
+  <si>
+    <t>F1_Lroom_1</t>
+  </si>
+  <si>
+    <t>310028,310029</t>
+  </si>
+  <si>
+    <t>F1_Lroom_2</t>
+  </si>
+  <si>
+    <t>310031,310032,310033</t>
+  </si>
+  <si>
+    <t>F1_Mroom_3</t>
+  </si>
+  <si>
+    <t>310034,310035</t>
+  </si>
+  <si>
+    <t>F1_Mroom_4</t>
+  </si>
+  <si>
+    <t>310036,310037</t>
+  </si>
+  <si>
+    <t>F1_Lroom_7</t>
+  </si>
+  <si>
+    <t>310038,310039</t>
+  </si>
+  <si>
+    <t>F1_Mroom_5</t>
+  </si>
+  <si>
+    <t>310040</t>
+  </si>
+  <si>
+    <t>F1_hall_2</t>
+  </si>
+  <si>
+    <t>310041,310042,310044,310046</t>
+  </si>
+  <si>
+    <t>F1_Mroom_7</t>
+  </si>
+  <si>
+    <t>310045</t>
+  </si>
+  <si>
+    <t>F1_Mroom_6</t>
+  </si>
+  <si>
+    <t>410043</t>
+  </si>
+  <si>
+    <t>F1_hall_3</t>
+  </si>
+  <si>
+    <t>310047,310048,310050,310052</t>
+  </si>
+  <si>
+    <t>F1_Mroom_9</t>
+  </si>
+  <si>
+    <t>310051</t>
+  </si>
+  <si>
+    <t>F1_Mroom_8</t>
+  </si>
+  <si>
+    <t>310049</t>
+  </si>
+  <si>
+    <t>F1_hall_4</t>
+  </si>
+  <si>
+    <t>310053,310054,310056</t>
+  </si>
+  <si>
+    <t>F1_Mroom_11</t>
+  </si>
+  <si>
+    <t>310057,310058</t>
+  </si>
+  <si>
+    <t>F1_Mroom_10</t>
+  </si>
+  <si>
+    <t>310055</t>
+  </si>
+  <si>
+    <t>F1_Lroom_3</t>
+  </si>
+  <si>
+    <t>310059,310060</t>
+  </si>
+  <si>
+    <t>F1_shothall_1</t>
+  </si>
+  <si>
+    <t>310061,310062</t>
+  </si>
+  <si>
+    <t>F1_Lroom_4</t>
+  </si>
+  <si>
+    <t>310063,310064</t>
+  </si>
+  <si>
+    <t>F1_shothall_2</t>
+  </si>
+  <si>
+    <t>310065,310066</t>
+  </si>
+  <si>
+    <t>F1_Lroom_5</t>
+  </si>
+  <si>
+    <t>310067,310068</t>
+  </si>
+  <si>
+    <t>F1_Mroom_12</t>
+  </si>
+  <si>
+    <t>310069,310070</t>
+  </si>
+  <si>
+    <t>F1_Lroom_6</t>
+  </si>
+  <si>
+    <t>310071,310072</t>
+  </si>
+  <si>
+    <t>F1_hall_7</t>
+  </si>
+  <si>
+    <t>310075,310076,310077,310078,310079</t>
+  </si>
+  <si>
+    <t>F1_hall_9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>F1_hall_8</t>
+  </si>
+  <si>
+    <t>310085,310086,310087,310088,310089</t>
+  </si>
+  <si>
+    <t>F1_hall_5</t>
+  </si>
+  <si>
+    <t>310080,310081,310082,310083,310084</t>
+  </si>
+  <si>
+    <t>F1_hall_6</t>
+  </si>
+  <si>
+    <t>310090,310091,310092,310093,310094,310095</t>
+  </si>
+  <si>
+    <t>F1_hall_10</t>
+  </si>
+  <si>
+    <t>310096,310097</t>
+  </si>
+  <si>
+    <t>F1_Mroom_15</t>
+  </si>
+  <si>
+    <t>310099,310100,310101,310102</t>
+  </si>
+  <si>
+    <t>F1_Lroom_8</t>
+  </si>
+  <si>
+    <t>310103,310104,310105,310106,310107</t>
+  </si>
+  <si>
+    <t>F1_Mroom_13</t>
+  </si>
+  <si>
+    <t>310108,310110</t>
+  </si>
+  <si>
+    <t>F1_Mroom_14</t>
+  </si>
+  <si>
+    <t>310109,310111</t>
   </si>
 </sst>
 </file>
@@ -240,10 +459,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -393,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +627,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -587,12 +866,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -713,85 +1007,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,64 +1067,298 @@
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1170,532 +1671,2151 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="26.7333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.3916666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.525" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32.6083333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="43.0333333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.3166666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.3833333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
+    <col min="1" max="1" width="2.175" customWidth="1"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="5.76666666666667" style="9" customWidth="1"/>
+    <col min="4" max="4" width="3.03333333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.3916666666667" style="10" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="4.675" style="11" customWidth="1"/>
+    <col min="8" max="8" width="46.525" style="12" customWidth="1"/>
+    <col min="9" max="9" width="5.425" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="4.35" style="11" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" style="11" customWidth="1"/>
+    <col min="13" max="13" width="29.125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="13.7916666666667" style="11" customWidth="1"/>
+    <col min="15" max="15" width="5.20833333333333" style="11" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:16">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="89" customHeight="1" spans="1:16">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="O4" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="P4" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15">
         <v>300001</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="2" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="1">
+      <c r="N5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="11">
         <v>12</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15">
         <v>300002</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="2" t="s">
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="1">
+      <c r="N6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="11">
         <v>30</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15">
         <v>300003</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="1">
+      <c r="N7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="11">
         <v>12</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
         <v>300004</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>3</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="1">
+      <c r="N8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="11">
         <v>18</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15">
         <v>300005</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="O9" s="11">
         <v>18</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3">
+    <row r="10" s="1" customFormat="1" spans="1:17">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19">
         <v>300006</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
+        <v>3</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21">
         <v>12</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="3"/>
+      <c r="Q10" s="66"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:17">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
+        <v>300007</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0</v>
+      </c>
+      <c r="J11" s="26">
+        <v>3</v>
+      </c>
+      <c r="K11" s="26">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26">
+        <v>12</v>
+      </c>
+      <c r="P11" s="26">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="67"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:17">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29">
+        <v>300008</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31">
+        <v>3</v>
+      </c>
+      <c r="K12" s="31">
+        <v>0</v>
+      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31">
+        <v>30</v>
+      </c>
+      <c r="P12" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="68"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:17">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29">
+        <v>300009</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31">
+        <v>3</v>
+      </c>
+      <c r="K13" s="31">
+        <v>0</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31">
+        <v>12</v>
+      </c>
+      <c r="P13" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="68"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:17">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29">
+        <v>300010</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
+      <c r="J14" s="31">
+        <v>3</v>
+      </c>
+      <c r="K14" s="31">
+        <v>0</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31">
+        <v>12</v>
+      </c>
+      <c r="P14" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="68"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:17">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29">
+        <v>300011</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="31">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31">
+        <v>3</v>
+      </c>
+      <c r="K15" s="31">
+        <v>0</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31">
+        <v>18</v>
+      </c>
+      <c r="P15" s="31">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="68"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="2:17">
+      <c r="B16" s="29">
+        <v>300012</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
+        <v>3</v>
+      </c>
+      <c r="K16" s="31">
+        <v>0</v>
+      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31">
+        <v>18</v>
+      </c>
+      <c r="P16" s="31">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="68"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="2:17">
+      <c r="B17" s="29">
+        <v>300013</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="29">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="31">
+        <v>0</v>
+      </c>
+      <c r="J17" s="31">
+        <v>3</v>
+      </c>
+      <c r="K17" s="31">
+        <v>0</v>
+      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31">
+        <v>12</v>
+      </c>
+      <c r="P17" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="68"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="2:17">
+      <c r="B18" s="29">
+        <v>300014</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="29">
+        <v>0</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="31">
+        <v>0</v>
+      </c>
+      <c r="G18" s="31">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="31">
+        <v>0</v>
+      </c>
+      <c r="J18" s="31">
+        <v>3</v>
+      </c>
+      <c r="K18" s="31">
+        <v>0</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31">
+        <v>12</v>
+      </c>
+      <c r="P18" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="68"/>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="2:17">
+      <c r="B19" s="34">
+        <v>300015</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="34">
+        <v>0</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37">
+        <v>3</v>
+      </c>
+      <c r="K19" s="37">
+        <v>0</v>
+      </c>
+      <c r="L19" s="37"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37">
+        <v>18</v>
+      </c>
+      <c r="P19" s="37">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="69"/>
+    </row>
+    <row r="20" s="5" customFormat="1" spans="2:17">
+      <c r="B20" s="39">
+        <v>300016</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41">
+        <v>0</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="43">
+        <v>0</v>
+      </c>
+      <c r="G20" s="43">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="63">
+        <v>0</v>
+      </c>
+      <c r="J20" s="63">
+        <v>3</v>
+      </c>
+      <c r="K20" s="63">
+        <v>0</v>
+      </c>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="63">
+        <v>12</v>
+      </c>
+      <c r="P20" s="63">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="70"/>
+    </row>
+    <row r="21" s="5" customFormat="1" spans="2:17">
+      <c r="B21" s="39">
+        <v>300017</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41">
+        <v>0</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="43">
+        <v>0</v>
+      </c>
+      <c r="G21" s="43">
+        <v>0</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="63">
+        <v>0</v>
+      </c>
+      <c r="J21" s="63">
+        <v>3</v>
+      </c>
+      <c r="K21" s="63">
+        <v>0</v>
+      </c>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="63">
+        <v>30</v>
+      </c>
+      <c r="P21" s="63">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="70"/>
+    </row>
+    <row r="22" s="5" customFormat="1" spans="2:17">
+      <c r="B22" s="39">
+        <v>300018</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41">
+        <v>0</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="43">
+        <v>0</v>
+      </c>
+      <c r="G22" s="43">
+        <v>0</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="63">
+        <v>0</v>
+      </c>
+      <c r="J22" s="63">
+        <v>3</v>
+      </c>
+      <c r="K22" s="63">
+        <v>0</v>
+      </c>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="63">
+        <v>12</v>
+      </c>
+      <c r="P22" s="63">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="70"/>
+    </row>
+    <row r="23" s="5" customFormat="1" spans="2:17">
+      <c r="B23" s="39">
+        <v>300019</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41">
+        <v>0</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="43">
+        <v>0</v>
+      </c>
+      <c r="G23" s="43">
+        <v>0</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="63">
+        <v>0</v>
+      </c>
+      <c r="J23" s="63">
+        <v>3</v>
+      </c>
+      <c r="K23" s="63">
+        <v>0</v>
+      </c>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="63">
+        <v>12</v>
+      </c>
+      <c r="P23" s="63">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="70"/>
+    </row>
+    <row r="24" s="5" customFormat="1" spans="2:17">
+      <c r="B24" s="39">
+        <v>300020</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41">
+        <v>0</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="43">
+        <v>0</v>
+      </c>
+      <c r="G24" s="43">
+        <v>0</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="63">
+        <v>0</v>
+      </c>
+      <c r="J24" s="63">
+        <v>3</v>
+      </c>
+      <c r="K24" s="63">
+        <v>0</v>
+      </c>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="63">
+        <v>30</v>
+      </c>
+      <c r="P24" s="63">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="70"/>
+    </row>
+    <row r="25" s="5" customFormat="1" spans="2:17">
+      <c r="B25" s="39">
+        <v>300021</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41">
+        <v>0</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="43">
+        <v>0</v>
+      </c>
+      <c r="G25" s="43">
+        <v>0</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="63">
+        <v>0</v>
+      </c>
+      <c r="J25" s="63">
+        <v>3</v>
+      </c>
+      <c r="K25" s="63">
+        <v>0</v>
+      </c>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="63">
+        <v>12</v>
+      </c>
+      <c r="P25" s="63">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="70"/>
+    </row>
+    <row r="26" s="5" customFormat="1" spans="2:17">
+      <c r="B26" s="39">
+        <v>300022</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41">
+        <v>0</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="43">
+        <v>0</v>
+      </c>
+      <c r="G26" s="43">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="63">
+        <v>0</v>
+      </c>
+      <c r="J26" s="63">
+        <v>3</v>
+      </c>
+      <c r="K26" s="63">
+        <v>0</v>
+      </c>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="63">
+        <v>12</v>
+      </c>
+      <c r="P26" s="63">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="70"/>
+    </row>
+    <row r="27" s="5" customFormat="1" spans="2:17">
+      <c r="B27" s="39">
+        <v>300023</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41">
+        <v>0</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="43">
+        <v>0</v>
+      </c>
+      <c r="G27" s="43">
+        <v>0</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="63">
+        <v>0</v>
+      </c>
+      <c r="J27" s="63">
+        <v>3</v>
+      </c>
+      <c r="K27" s="63">
+        <v>0</v>
+      </c>
+      <c r="L27" s="43"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="63">
+        <v>30</v>
+      </c>
+      <c r="P27" s="63">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="70"/>
+    </row>
+    <row r="28" s="5" customFormat="1" spans="2:17">
+      <c r="B28" s="39">
+        <v>300024</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41">
+        <v>0</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="43">
+        <v>0</v>
+      </c>
+      <c r="G28" s="43">
+        <v>0</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="63">
+        <v>0</v>
+      </c>
+      <c r="J28" s="63">
+        <v>3</v>
+      </c>
+      <c r="K28" s="63">
+        <v>0</v>
+      </c>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="63">
+        <v>12</v>
+      </c>
+      <c r="P28" s="63">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="70"/>
+    </row>
+    <row r="29" s="5" customFormat="1" spans="2:17">
+      <c r="B29" s="39">
+        <v>300025</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41">
+        <v>0</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="43">
+        <v>0</v>
+      </c>
+      <c r="G29" s="43">
+        <v>0</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="63">
+        <v>0</v>
+      </c>
+      <c r="J29" s="63">
+        <v>3</v>
+      </c>
+      <c r="K29" s="63">
+        <v>0</v>
+      </c>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="63">
+        <v>12</v>
+      </c>
+      <c r="P29" s="63">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="70"/>
+    </row>
+    <row r="30" s="5" customFormat="1" spans="2:17">
+      <c r="B30" s="39">
+        <v>300026</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41">
+        <v>0</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="43">
+        <v>0</v>
+      </c>
+      <c r="G30" s="43">
+        <v>0</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="63">
+        <v>0</v>
+      </c>
+      <c r="J30" s="63">
+        <v>3</v>
+      </c>
+      <c r="K30" s="63">
+        <v>0</v>
+      </c>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43">
+        <v>18</v>
+      </c>
+      <c r="P30" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="70"/>
+    </row>
+    <row r="31" s="5" customFormat="1" spans="2:17">
+      <c r="B31" s="39">
+        <v>300027</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41">
+        <v>0</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="43">
+        <v>0</v>
+      </c>
+      <c r="G31" s="43">
+        <v>0</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="63">
+        <v>0</v>
+      </c>
+      <c r="J31" s="63">
+        <v>3</v>
+      </c>
+      <c r="K31" s="63">
+        <v>0</v>
+      </c>
+      <c r="L31" s="43"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43">
+        <v>10</v>
+      </c>
+      <c r="P31" s="43">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="70"/>
+    </row>
+    <row r="32" s="5" customFormat="1" spans="2:17">
+      <c r="B32" s="39">
+        <v>300028</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41">
+        <v>0</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="43">
+        <v>0</v>
+      </c>
+      <c r="G32" s="43">
+        <v>0</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="63">
+        <v>0</v>
+      </c>
+      <c r="J32" s="63">
+        <v>3</v>
+      </c>
+      <c r="K32" s="63">
+        <v>0</v>
+      </c>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43">
+        <v>18</v>
+      </c>
+      <c r="P32" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="70"/>
+    </row>
+    <row r="33" s="5" customFormat="1" spans="2:17">
+      <c r="B33" s="39">
+        <v>300029</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41">
+        <v>0</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="43">
+        <v>0</v>
+      </c>
+      <c r="G33" s="43">
+        <v>0</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="63">
+        <v>0</v>
+      </c>
+      <c r="J33" s="63">
+        <v>3</v>
+      </c>
+      <c r="K33" s="63">
+        <v>0</v>
+      </c>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43">
+        <v>10</v>
+      </c>
+      <c r="P33" s="43">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="70"/>
+    </row>
+    <row r="34" s="5" customFormat="1" spans="2:17">
+      <c r="B34" s="39">
+        <v>300030</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41">
+        <v>0</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="43">
+        <v>0</v>
+      </c>
+      <c r="G34" s="43">
+        <v>0</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="63">
+        <v>0</v>
+      </c>
+      <c r="J34" s="63">
+        <v>3</v>
+      </c>
+      <c r="K34" s="63">
+        <v>0</v>
+      </c>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43">
+        <v>18</v>
+      </c>
+      <c r="P34" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="70"/>
+    </row>
+    <row r="35" s="5" customFormat="1" spans="2:17">
+      <c r="B35" s="39">
+        <v>300031</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41">
+        <v>0</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="43">
+        <v>0</v>
+      </c>
+      <c r="G35" s="43">
+        <v>0</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="63">
+        <v>0</v>
+      </c>
+      <c r="J35" s="63">
+        <v>3</v>
+      </c>
+      <c r="K35" s="63">
+        <v>0</v>
+      </c>
+      <c r="L35" s="43"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="63">
+        <v>12</v>
+      </c>
+      <c r="P35" s="63">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="70"/>
+    </row>
+    <row r="36" s="5" customFormat="1" spans="2:17">
+      <c r="B36" s="39">
+        <v>300032</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41">
+        <v>0</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="43">
+        <v>0</v>
+      </c>
+      <c r="G36" s="43">
+        <v>0</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="63">
+        <v>0</v>
+      </c>
+      <c r="J36" s="63">
+        <v>3</v>
+      </c>
+      <c r="K36" s="63">
+        <v>0</v>
+      </c>
+      <c r="L36" s="43"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43">
+        <v>18</v>
+      </c>
+      <c r="P36" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="70"/>
+    </row>
+    <row r="37" s="6" customFormat="1" spans="2:17">
+      <c r="B37" s="45">
+        <v>300033</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47">
+        <v>0</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="49">
+        <v>0</v>
+      </c>
+      <c r="G37" s="49">
+        <v>0</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="49">
+        <v>0</v>
+      </c>
+      <c r="J37" s="49">
+        <v>3</v>
+      </c>
+      <c r="K37" s="49">
+        <v>0</v>
+      </c>
+      <c r="L37" s="64"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="49">
+        <v>30</v>
+      </c>
+      <c r="P37" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="71"/>
+    </row>
+    <row r="38" s="7" customFormat="1" spans="2:17">
+      <c r="B38" s="51">
+        <v>300034</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53">
+        <v>0</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="55">
+        <v>0</v>
+      </c>
+      <c r="G38" s="55">
+        <v>0</v>
+      </c>
+      <c r="H38" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="55">
+        <v>0</v>
+      </c>
+      <c r="J38" s="55">
+        <v>3</v>
+      </c>
+      <c r="K38" s="55">
+        <v>0</v>
+      </c>
+      <c r="L38" s="65"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="55">
+        <v>30</v>
+      </c>
+      <c r="P38" s="55">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="72"/>
+    </row>
+    <row r="39" s="6" customFormat="1" spans="2:17">
+      <c r="B39" s="45">
+        <v>300035</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47">
+        <v>0</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="49">
+        <v>0</v>
+      </c>
+      <c r="G39" s="49">
+        <v>0</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="49">
+        <v>0</v>
+      </c>
+      <c r="J39" s="49">
+        <v>3</v>
+      </c>
+      <c r="K39" s="49">
+        <v>0</v>
+      </c>
+      <c r="L39" s="64"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="49">
+        <v>30</v>
+      </c>
+      <c r="P39" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="71"/>
+    </row>
+    <row r="40" s="6" customFormat="1" spans="2:17">
+      <c r="B40" s="45">
+        <v>300036</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47">
+        <v>0</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="49">
+        <v>0</v>
+      </c>
+      <c r="G40" s="49">
+        <v>0</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="49">
+        <v>0</v>
+      </c>
+      <c r="J40" s="49">
+        <v>3</v>
+      </c>
+      <c r="K40" s="49">
+        <v>0</v>
+      </c>
+      <c r="L40" s="64"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="49">
+        <v>30</v>
+      </c>
+      <c r="P40" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="71"/>
+    </row>
+    <row r="41" s="6" customFormat="1" spans="2:17">
+      <c r="B41" s="45">
+        <v>300037</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47">
+        <v>0</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="49">
+        <v>0</v>
+      </c>
+      <c r="G41" s="49">
+        <v>0</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="I41" s="49">
+        <v>0</v>
+      </c>
+      <c r="J41" s="49">
+        <v>3</v>
+      </c>
+      <c r="K41" s="49">
+        <v>0</v>
+      </c>
+      <c r="L41" s="64"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="49">
+        <v>30</v>
+      </c>
+      <c r="P41" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="71"/>
+    </row>
+    <row r="42" s="6" customFormat="1" spans="2:17">
+      <c r="B42" s="45">
+        <v>300038</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47">
+        <v>0</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="49">
+        <v>0</v>
+      </c>
+      <c r="G42" s="49">
+        <v>0</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="49">
+        <v>0</v>
+      </c>
+      <c r="J42" s="49">
+        <v>3</v>
+      </c>
+      <c r="K42" s="49">
+        <v>0</v>
+      </c>
+      <c r="L42" s="64"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="49">
+        <v>30</v>
+      </c>
+      <c r="P42" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="71"/>
+    </row>
+    <row r="43" s="6" customFormat="1" spans="2:17">
+      <c r="B43" s="45">
+        <v>300039</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47">
+        <v>0</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="49">
+        <v>0</v>
+      </c>
+      <c r="G43" s="49">
+        <v>0</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="I43" s="49">
+        <v>0</v>
+      </c>
+      <c r="J43" s="49">
+        <v>3</v>
+      </c>
+      <c r="K43" s="49">
+        <v>0</v>
+      </c>
+      <c r="L43" s="64"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="49">
+        <v>12</v>
+      </c>
+      <c r="P43" s="49">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="71"/>
+    </row>
+    <row r="44" s="6" customFormat="1" spans="2:17">
+      <c r="B44" s="45">
+        <v>300040</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47">
+        <v>0</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="49">
+        <v>0</v>
+      </c>
+      <c r="G44" s="49">
+        <v>0</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" s="49">
+        <v>0</v>
+      </c>
+      <c r="J44" s="49">
+        <v>3</v>
+      </c>
+      <c r="K44" s="49">
+        <v>0</v>
+      </c>
+      <c r="L44" s="64"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64">
+        <v>18</v>
+      </c>
+      <c r="P44" s="64">
+        <v>12</v>
+      </c>
+      <c r="Q44" s="71"/>
+    </row>
+    <row r="45" s="6" customFormat="1" spans="2:17">
+      <c r="B45" s="45">
+        <v>300041</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47">
+        <v>0</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="49">
+        <v>0</v>
+      </c>
+      <c r="G45" s="49">
+        <v>0</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" s="49">
+        <v>0</v>
+      </c>
+      <c r="J45" s="49">
+        <v>3</v>
+      </c>
+      <c r="K45" s="49">
+        <v>0</v>
+      </c>
+      <c r="L45" s="64"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="49">
+        <v>12</v>
+      </c>
+      <c r="P45" s="49">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="71"/>
+    </row>
+    <row r="46" s="6" customFormat="1" spans="2:17">
+      <c r="B46" s="45">
+        <v>300042</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47">
+        <v>0</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="49">
+        <v>0</v>
+      </c>
+      <c r="G46" s="49">
+        <v>0</v>
+      </c>
+      <c r="H46" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="I46" s="49">
+        <v>0</v>
+      </c>
+      <c r="J46" s="49">
+        <v>3</v>
+      </c>
+      <c r="K46" s="49">
+        <v>0</v>
+      </c>
+      <c r="L46" s="64"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="49">
+        <v>12</v>
+      </c>
+      <c r="P46" s="49">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="71"/>
+    </row>
+    <row r="47" s="8" customFormat="1" spans="2:17">
+      <c r="B47" s="29"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="73"/>
+    </row>
+    <row r="48" s="8" customFormat="1" spans="2:17">
+      <c r="B48" s="29"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="73"/>
+    </row>
+    <row r="49" s="8" customFormat="1" spans="2:17">
+      <c r="B49" s="29"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="73"/>
+    </row>
+    <row r="50" s="8" customFormat="1" spans="2:17">
+      <c r="B50" s="29"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="73"/>
+    </row>
+    <row r="51" s="8" customFormat="1" spans="2:17">
+      <c r="B51" s="29"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="73"/>
+    </row>
+    <row r="52" s="8" customFormat="1" spans="2:17">
+      <c r="B52" s="29"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="73"/>
+    </row>
+    <row r="53" s="8" customFormat="1" spans="2:17">
+      <c r="B53" s="29"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="73"/>
+    </row>
+    <row r="54" s="8" customFormat="1" spans="2:17">
+      <c r="B54" s="29"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="73"/>
+    </row>
+    <row r="55" s="8" customFormat="1" spans="2:17">
+      <c r="B55" s="29"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="73"/>
+    </row>
+    <row r="56" s="8" customFormat="1" spans="2:17">
+      <c r="B56" s="29"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="73"/>
+    </row>
+    <row r="57" s="8" customFormat="1" spans="2:17">
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7934453-DE0C-4036-A805-FBD74BF21BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16395" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -242,9 +235,6 @@
     <t>F1_hall_1</t>
   </si>
   <si>
-    <t>310017,310018,310019.310020,310021,310022</t>
-  </si>
-  <si>
     <t>F1_Mroom_1</t>
   </si>
   <si>
@@ -447,178 +437,31 @@
   </si>
   <si>
     <t>310109,310111</t>
+  </si>
+  <si>
+    <t>310017,310018,310019,310020,310021,310022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,25 +476,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,194 +522,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -889,251 +546,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1361,61 +776,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1665,40 +1036,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.175" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="5.76666666666667" style="9" customWidth="1"/>
-    <col min="4" max="4" width="3.03333333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.3916666666667" style="10" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="4.675" style="11" customWidth="1"/>
-    <col min="8" max="8" width="46.525" style="12" customWidth="1"/>
-    <col min="9" max="9" width="5.425" style="11" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="3" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="11" customWidth="1"/>
     <col min="10" max="10" width="5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="4.35" style="11" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" style="11" customWidth="1"/>
-    <col min="13" max="13" width="29.125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="13.7916666666667" style="11" customWidth="1"/>
-    <col min="15" max="15" width="5.20833333333333" style="11" customWidth="1"/>
-    <col min="16" max="16" width="4.125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" style="11" customWidth="1"/>
     <col min="17" max="17" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:16">
+    <row r="1" spans="1:17" ht="90">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17" ht="30">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -1798,7 +1169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
@@ -1848,7 +1219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="89" customHeight="1" spans="1:16">
+    <row r="4" spans="1:17" ht="89.1" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
@@ -1898,7 +1269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17" ht="30">
       <c r="A5" s="14"/>
       <c r="B5" s="15">
         <v>300001</v>
@@ -1930,7 +1301,6 @@
       <c r="K5" s="11">
         <v>0</v>
       </c>
-      <c r="L5" s="11"/>
       <c r="M5" s="12" t="s">
         <v>44</v>
       </c>
@@ -1944,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="14"/>
       <c r="B6" s="15">
         <v>300002</v>
@@ -1976,7 +1346,6 @@
       <c r="K6" s="11">
         <v>0</v>
       </c>
-      <c r="L6" s="11"/>
       <c r="M6" s="12" t="s">
         <v>49</v>
       </c>
@@ -1990,7 +1359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="14"/>
       <c r="B7" s="15">
         <v>300003</v>
@@ -2035,7 +1404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17" ht="30">
       <c r="A8" s="14"/>
       <c r="B8" s="15">
         <v>300004</v>
@@ -2083,7 +1452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17" ht="30">
       <c r="A9" s="14"/>
       <c r="B9" s="15">
         <v>300005</v>
@@ -2131,7 +1500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:17">
+    <row r="10" spans="1:17" s="1" customFormat="1">
       <c r="A10" s="18"/>
       <c r="B10" s="19">
         <v>300006</v>
@@ -2174,7 +1543,7 @@
       </c>
       <c r="Q10" s="66"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:17">
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="30">
       <c r="A11" s="23"/>
       <c r="B11" s="24">
         <v>300007</v>
@@ -2215,7 +1584,7 @@
       </c>
       <c r="Q11" s="67"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:17">
+    <row r="12" spans="1:17" s="3" customFormat="1">
       <c r="A12" s="28"/>
       <c r="B12" s="29">
         <v>300008</v>
@@ -2234,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="I12" s="31">
         <v>0</v>
@@ -2256,7 +1625,7 @@
       </c>
       <c r="Q12" s="68"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:17">
+    <row r="13" spans="1:17" s="3" customFormat="1">
       <c r="A13" s="28"/>
       <c r="B13" s="29">
         <v>300009</v>
@@ -2266,16 +1635,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0</v>
-      </c>
-      <c r="G13" s="31">
-        <v>0</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>73</v>
       </c>
       <c r="I13" s="31">
         <v>0</v>
@@ -2297,7 +1666,7 @@
       </c>
       <c r="Q13" s="68"/>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:17">
+    <row r="14" spans="1:17" s="3" customFormat="1">
       <c r="A14" s="28"/>
       <c r="B14" s="29">
         <v>300010</v>
@@ -2307,16 +1676,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32" t="s">
         <v>74</v>
-      </c>
-      <c r="F14" s="31">
-        <v>0</v>
-      </c>
-      <c r="G14" s="31">
-        <v>0</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>75</v>
       </c>
       <c r="I14" s="31">
         <v>0</v>
@@ -2338,7 +1707,7 @@
       </c>
       <c r="Q14" s="68"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:17">
+    <row r="15" spans="1:17" s="3" customFormat="1">
       <c r="A15" s="28"/>
       <c r="B15" s="29">
         <v>300011</v>
@@ -2348,16 +1717,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0</v>
-      </c>
-      <c r="G15" s="31">
-        <v>0</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>77</v>
       </c>
       <c r="I15" s="31">
         <v>0</v>
@@ -2379,7 +1748,7 @@
       </c>
       <c r="Q15" s="68"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="2:17">
+    <row r="16" spans="1:17" s="3" customFormat="1">
       <c r="B16" s="29">
         <v>300012</v>
       </c>
@@ -2388,16 +1757,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="31">
-        <v>0</v>
-      </c>
-      <c r="G16" s="31">
-        <v>0</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>79</v>
       </c>
       <c r="I16" s="31">
         <v>0</v>
@@ -2419,7 +1788,7 @@
       </c>
       <c r="Q16" s="68"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="2:17">
+    <row r="17" spans="2:17" s="3" customFormat="1">
       <c r="B17" s="29">
         <v>300013</v>
       </c>
@@ -2428,16 +1797,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32" t="s">
         <v>80</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0</v>
-      </c>
-      <c r="G17" s="31">
-        <v>0</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>81</v>
       </c>
       <c r="I17" s="31">
         <v>0</v>
@@ -2459,7 +1828,7 @@
       </c>
       <c r="Q17" s="68"/>
     </row>
-    <row r="18" s="3" customFormat="1" spans="2:17">
+    <row r="18" spans="2:17" s="3" customFormat="1">
       <c r="B18" s="29">
         <v>300014</v>
       </c>
@@ -2468,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="31">
+        <v>0</v>
+      </c>
+      <c r="G18" s="31">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32" t="s">
         <v>82</v>
-      </c>
-      <c r="F18" s="31">
-        <v>0</v>
-      </c>
-      <c r="G18" s="31">
-        <v>0</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>83</v>
       </c>
       <c r="I18" s="31">
         <v>0</v>
@@ -2499,7 +1868,7 @@
       </c>
       <c r="Q18" s="68"/>
     </row>
-    <row r="19" s="4" customFormat="1" spans="2:17">
+    <row r="19" spans="2:17" s="4" customFormat="1">
       <c r="B19" s="34">
         <v>300015</v>
       </c>
@@ -2508,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0</v>
+      </c>
+      <c r="H19" s="38" t="s">
         <v>84</v>
-      </c>
-      <c r="F19" s="37">
-        <v>0</v>
-      </c>
-      <c r="G19" s="37">
-        <v>0</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>85</v>
       </c>
       <c r="I19" s="37">
         <v>0</v>
@@ -2539,7 +1908,7 @@
       </c>
       <c r="Q19" s="69"/>
     </row>
-    <row r="20" s="5" customFormat="1" spans="2:17">
+    <row r="20" spans="2:17" s="5" customFormat="1">
       <c r="B20" s="39">
         <v>300016</v>
       </c>
@@ -2548,16 +1917,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="43">
+        <v>0</v>
+      </c>
+      <c r="G20" s="43">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44" t="s">
         <v>86</v>
-      </c>
-      <c r="F20" s="43">
-        <v>0</v>
-      </c>
-      <c r="G20" s="43">
-        <v>0</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>87</v>
       </c>
       <c r="I20" s="63">
         <v>0</v>
@@ -2579,7 +1948,7 @@
       </c>
       <c r="Q20" s="70"/>
     </row>
-    <row r="21" s="5" customFormat="1" spans="2:17">
+    <row r="21" spans="2:17" s="5" customFormat="1">
       <c r="B21" s="39">
         <v>300017</v>
       </c>
@@ -2588,16 +1957,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="43">
+        <v>0</v>
+      </c>
+      <c r="G21" s="43">
+        <v>0</v>
+      </c>
+      <c r="H21" s="44" t="s">
         <v>88</v>
-      </c>
-      <c r="F21" s="43">
-        <v>0</v>
-      </c>
-      <c r="G21" s="43">
-        <v>0</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>89</v>
       </c>
       <c r="I21" s="63">
         <v>0</v>
@@ -2619,7 +1988,7 @@
       </c>
       <c r="Q21" s="70"/>
     </row>
-    <row r="22" s="5" customFormat="1" spans="2:17">
+    <row r="22" spans="2:17" s="5" customFormat="1">
       <c r="B22" s="39">
         <v>300018</v>
       </c>
@@ -2628,16 +1997,16 @@
         <v>0</v>
       </c>
       <c r="E22" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="43">
+        <v>0</v>
+      </c>
+      <c r="G22" s="43">
+        <v>0</v>
+      </c>
+      <c r="H22" s="44" t="s">
         <v>90</v>
-      </c>
-      <c r="F22" s="43">
-        <v>0</v>
-      </c>
-      <c r="G22" s="43">
-        <v>0</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>91</v>
       </c>
       <c r="I22" s="63">
         <v>0</v>
@@ -2659,7 +2028,7 @@
       </c>
       <c r="Q22" s="70"/>
     </row>
-    <row r="23" s="5" customFormat="1" spans="2:17">
+    <row r="23" spans="2:17" s="5" customFormat="1">
       <c r="B23" s="39">
         <v>300019</v>
       </c>
@@ -2668,16 +2037,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="43">
+        <v>0</v>
+      </c>
+      <c r="G23" s="43">
+        <v>0</v>
+      </c>
+      <c r="H23" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="F23" s="43">
-        <v>0</v>
-      </c>
-      <c r="G23" s="43">
-        <v>0</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>93</v>
       </c>
       <c r="I23" s="63">
         <v>0</v>
@@ -2699,7 +2068,7 @@
       </c>
       <c r="Q23" s="70"/>
     </row>
-    <row r="24" s="5" customFormat="1" spans="2:17">
+    <row r="24" spans="2:17" s="5" customFormat="1">
       <c r="B24" s="39">
         <v>300020</v>
       </c>
@@ -2708,16 +2077,16 @@
         <v>0</v>
       </c>
       <c r="E24" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="43">
+        <v>0</v>
+      </c>
+      <c r="G24" s="43">
+        <v>0</v>
+      </c>
+      <c r="H24" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="F24" s="43">
-        <v>0</v>
-      </c>
-      <c r="G24" s="43">
-        <v>0</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>95</v>
       </c>
       <c r="I24" s="63">
         <v>0</v>
@@ -2739,7 +2108,7 @@
       </c>
       <c r="Q24" s="70"/>
     </row>
-    <row r="25" s="5" customFormat="1" spans="2:17">
+    <row r="25" spans="2:17" s="5" customFormat="1">
       <c r="B25" s="39">
         <v>300021</v>
       </c>
@@ -2748,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="E25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="43">
+        <v>0</v>
+      </c>
+      <c r="G25" s="43">
+        <v>0</v>
+      </c>
+      <c r="H25" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="F25" s="43">
-        <v>0</v>
-      </c>
-      <c r="G25" s="43">
-        <v>0</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>97</v>
       </c>
       <c r="I25" s="63">
         <v>0</v>
@@ -2779,7 +2148,7 @@
       </c>
       <c r="Q25" s="70"/>
     </row>
-    <row r="26" s="5" customFormat="1" spans="2:17">
+    <row r="26" spans="2:17" s="5" customFormat="1">
       <c r="B26" s="39">
         <v>300022</v>
       </c>
@@ -2788,16 +2157,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="43">
+        <v>0</v>
+      </c>
+      <c r="G26" s="43">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="F26" s="43">
-        <v>0</v>
-      </c>
-      <c r="G26" s="43">
-        <v>0</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>99</v>
       </c>
       <c r="I26" s="63">
         <v>0</v>
@@ -2819,7 +2188,7 @@
       </c>
       <c r="Q26" s="70"/>
     </row>
-    <row r="27" s="5" customFormat="1" spans="2:17">
+    <row r="27" spans="2:17" s="5" customFormat="1">
       <c r="B27" s="39">
         <v>300023</v>
       </c>
@@ -2828,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="E27" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="43">
+        <v>0</v>
+      </c>
+      <c r="G27" s="43">
+        <v>0</v>
+      </c>
+      <c r="H27" s="44" t="s">
         <v>100</v>
-      </c>
-      <c r="F27" s="43">
-        <v>0</v>
-      </c>
-      <c r="G27" s="43">
-        <v>0</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>101</v>
       </c>
       <c r="I27" s="63">
         <v>0</v>
@@ -2859,7 +2228,7 @@
       </c>
       <c r="Q27" s="70"/>
     </row>
-    <row r="28" s="5" customFormat="1" spans="2:17">
+    <row r="28" spans="2:17" s="5" customFormat="1">
       <c r="B28" s="39">
         <v>300024</v>
       </c>
@@ -2868,16 +2237,16 @@
         <v>0</v>
       </c>
       <c r="E28" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="43">
+        <v>0</v>
+      </c>
+      <c r="G28" s="43">
+        <v>0</v>
+      </c>
+      <c r="H28" s="44" t="s">
         <v>102</v>
-      </c>
-      <c r="F28" s="43">
-        <v>0</v>
-      </c>
-      <c r="G28" s="43">
-        <v>0</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>103</v>
       </c>
       <c r="I28" s="63">
         <v>0</v>
@@ -2899,7 +2268,7 @@
       </c>
       <c r="Q28" s="70"/>
     </row>
-    <row r="29" s="5" customFormat="1" spans="2:17">
+    <row r="29" spans="2:17" s="5" customFormat="1">
       <c r="B29" s="39">
         <v>300025</v>
       </c>
@@ -2908,16 +2277,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="43">
+        <v>0</v>
+      </c>
+      <c r="G29" s="43">
+        <v>0</v>
+      </c>
+      <c r="H29" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="F29" s="43">
-        <v>0</v>
-      </c>
-      <c r="G29" s="43">
-        <v>0</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>105</v>
       </c>
       <c r="I29" s="63">
         <v>0</v>
@@ -2939,7 +2308,7 @@
       </c>
       <c r="Q29" s="70"/>
     </row>
-    <row r="30" s="5" customFormat="1" spans="2:17">
+    <row r="30" spans="2:17" s="5" customFormat="1">
       <c r="B30" s="39">
         <v>300026</v>
       </c>
@@ -2948,16 +2317,16 @@
         <v>0</v>
       </c>
       <c r="E30" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="43">
+        <v>0</v>
+      </c>
+      <c r="G30" s="43">
+        <v>0</v>
+      </c>
+      <c r="H30" s="44" t="s">
         <v>106</v>
-      </c>
-      <c r="F30" s="43">
-        <v>0</v>
-      </c>
-      <c r="G30" s="43">
-        <v>0</v>
-      </c>
-      <c r="H30" s="44" t="s">
-        <v>107</v>
       </c>
       <c r="I30" s="63">
         <v>0</v>
@@ -2979,7 +2348,7 @@
       </c>
       <c r="Q30" s="70"/>
     </row>
-    <row r="31" s="5" customFormat="1" spans="2:17">
+    <row r="31" spans="2:17" s="5" customFormat="1">
       <c r="B31" s="39">
         <v>300027</v>
       </c>
@@ -2988,16 +2357,16 @@
         <v>0</v>
       </c>
       <c r="E31" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="43">
+        <v>0</v>
+      </c>
+      <c r="G31" s="43">
+        <v>0</v>
+      </c>
+      <c r="H31" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="F31" s="43">
-        <v>0</v>
-      </c>
-      <c r="G31" s="43">
-        <v>0</v>
-      </c>
-      <c r="H31" s="44" t="s">
-        <v>109</v>
       </c>
       <c r="I31" s="63">
         <v>0</v>
@@ -3019,7 +2388,7 @@
       </c>
       <c r="Q31" s="70"/>
     </row>
-    <row r="32" s="5" customFormat="1" spans="2:17">
+    <row r="32" spans="2:17" s="5" customFormat="1">
       <c r="B32" s="39">
         <v>300028</v>
       </c>
@@ -3028,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="43">
+        <v>0</v>
+      </c>
+      <c r="G32" s="43">
+        <v>0</v>
+      </c>
+      <c r="H32" s="44" t="s">
         <v>110</v>
-      </c>
-      <c r="F32" s="43">
-        <v>0</v>
-      </c>
-      <c r="G32" s="43">
-        <v>0</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>111</v>
       </c>
       <c r="I32" s="63">
         <v>0</v>
@@ -3059,7 +2428,7 @@
       </c>
       <c r="Q32" s="70"/>
     </row>
-    <row r="33" s="5" customFormat="1" spans="2:17">
+    <row r="33" spans="2:17" s="5" customFormat="1">
       <c r="B33" s="39">
         <v>300029</v>
       </c>
@@ -3068,16 +2437,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="43">
+        <v>0</v>
+      </c>
+      <c r="G33" s="43">
+        <v>0</v>
+      </c>
+      <c r="H33" s="44" t="s">
         <v>112</v>
-      </c>
-      <c r="F33" s="43">
-        <v>0</v>
-      </c>
-      <c r="G33" s="43">
-        <v>0</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>113</v>
       </c>
       <c r="I33" s="63">
         <v>0</v>
@@ -3099,7 +2468,7 @@
       </c>
       <c r="Q33" s="70"/>
     </row>
-    <row r="34" s="5" customFormat="1" spans="2:17">
+    <row r="34" spans="2:17" s="5" customFormat="1">
       <c r="B34" s="39">
         <v>300030</v>
       </c>
@@ -3108,16 +2477,16 @@
         <v>0</v>
       </c>
       <c r="E34" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="43">
+        <v>0</v>
+      </c>
+      <c r="G34" s="43">
+        <v>0</v>
+      </c>
+      <c r="H34" s="44" t="s">
         <v>114</v>
-      </c>
-      <c r="F34" s="43">
-        <v>0</v>
-      </c>
-      <c r="G34" s="43">
-        <v>0</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>115</v>
       </c>
       <c r="I34" s="63">
         <v>0</v>
@@ -3139,7 +2508,7 @@
       </c>
       <c r="Q34" s="70"/>
     </row>
-    <row r="35" s="5" customFormat="1" spans="2:17">
+    <row r="35" spans="2:17" s="5" customFormat="1">
       <c r="B35" s="39">
         <v>300031</v>
       </c>
@@ -3148,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="43">
+        <v>0</v>
+      </c>
+      <c r="G35" s="43">
+        <v>0</v>
+      </c>
+      <c r="H35" s="44" t="s">
         <v>116</v>
-      </c>
-      <c r="F35" s="43">
-        <v>0</v>
-      </c>
-      <c r="G35" s="43">
-        <v>0</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>117</v>
       </c>
       <c r="I35" s="63">
         <v>0</v>
@@ -3179,7 +2548,7 @@
       </c>
       <c r="Q35" s="70"/>
     </row>
-    <row r="36" s="5" customFormat="1" spans="2:17">
+    <row r="36" spans="2:17" s="5" customFormat="1">
       <c r="B36" s="39">
         <v>300032</v>
       </c>
@@ -3188,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="43">
+        <v>0</v>
+      </c>
+      <c r="G36" s="43">
+        <v>0</v>
+      </c>
+      <c r="H36" s="44" t="s">
         <v>118</v>
-      </c>
-      <c r="F36" s="43">
-        <v>0</v>
-      </c>
-      <c r="G36" s="43">
-        <v>0</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>119</v>
       </c>
       <c r="I36" s="63">
         <v>0</v>
@@ -3219,7 +2588,7 @@
       </c>
       <c r="Q36" s="70"/>
     </row>
-    <row r="37" s="6" customFormat="1" spans="2:17">
+    <row r="37" spans="2:17" s="6" customFormat="1">
       <c r="B37" s="45">
         <v>300033</v>
       </c>
@@ -3228,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="E37" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="49">
+        <v>0</v>
+      </c>
+      <c r="G37" s="49">
+        <v>0</v>
+      </c>
+      <c r="H37" s="50" t="s">
         <v>120</v>
-      </c>
-      <c r="F37" s="49">
-        <v>0</v>
-      </c>
-      <c r="G37" s="49">
-        <v>0</v>
-      </c>
-      <c r="H37" s="50" t="s">
-        <v>121</v>
       </c>
       <c r="I37" s="49">
         <v>0</v>
@@ -3259,7 +2628,7 @@
       </c>
       <c r="Q37" s="71"/>
     </row>
-    <row r="38" s="7" customFormat="1" spans="2:17">
+    <row r="38" spans="2:17" s="7" customFormat="1">
       <c r="B38" s="51">
         <v>300034</v>
       </c>
@@ -3268,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="E38" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="55">
+        <v>0</v>
+      </c>
+      <c r="G38" s="55">
+        <v>0</v>
+      </c>
+      <c r="H38" s="56" t="s">
         <v>122</v>
-      </c>
-      <c r="F38" s="55">
-        <v>0</v>
-      </c>
-      <c r="G38" s="55">
-        <v>0</v>
-      </c>
-      <c r="H38" s="56" t="s">
-        <v>123</v>
       </c>
       <c r="I38" s="55">
         <v>0</v>
@@ -3299,7 +2668,7 @@
       </c>
       <c r="Q38" s="72"/>
     </row>
-    <row r="39" s="6" customFormat="1" spans="2:17">
+    <row r="39" spans="2:17" s="6" customFormat="1">
       <c r="B39" s="45">
         <v>300035</v>
       </c>
@@ -3308,16 +2677,16 @@
         <v>0</v>
       </c>
       <c r="E39" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="49">
+        <v>0</v>
+      </c>
+      <c r="G39" s="49">
+        <v>0</v>
+      </c>
+      <c r="H39" s="50" t="s">
         <v>124</v>
-      </c>
-      <c r="F39" s="49">
-        <v>0</v>
-      </c>
-      <c r="G39" s="49">
-        <v>0</v>
-      </c>
-      <c r="H39" s="50" t="s">
-        <v>125</v>
       </c>
       <c r="I39" s="49">
         <v>0</v>
@@ -3339,7 +2708,7 @@
       </c>
       <c r="Q39" s="71"/>
     </row>
-    <row r="40" s="6" customFormat="1" spans="2:17">
+    <row r="40" spans="2:17" s="6" customFormat="1">
       <c r="B40" s="45">
         <v>300036</v>
       </c>
@@ -3348,16 +2717,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="49">
+        <v>0</v>
+      </c>
+      <c r="G40" s="49">
+        <v>0</v>
+      </c>
+      <c r="H40" s="50" t="s">
         <v>126</v>
-      </c>
-      <c r="F40" s="49">
-        <v>0</v>
-      </c>
-      <c r="G40" s="49">
-        <v>0</v>
-      </c>
-      <c r="H40" s="50" t="s">
-        <v>127</v>
       </c>
       <c r="I40" s="49">
         <v>0</v>
@@ -3379,7 +2748,7 @@
       </c>
       <c r="Q40" s="71"/>
     </row>
-    <row r="41" s="6" customFormat="1" spans="2:17">
+    <row r="41" spans="2:17" s="6" customFormat="1">
       <c r="B41" s="45">
         <v>300037</v>
       </c>
@@ -3388,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="49">
+        <v>0</v>
+      </c>
+      <c r="G41" s="49">
+        <v>0</v>
+      </c>
+      <c r="H41" s="50" t="s">
         <v>128</v>
-      </c>
-      <c r="F41" s="49">
-        <v>0</v>
-      </c>
-      <c r="G41" s="49">
-        <v>0</v>
-      </c>
-      <c r="H41" s="50" t="s">
-        <v>129</v>
       </c>
       <c r="I41" s="49">
         <v>0</v>
@@ -3419,7 +2788,7 @@
       </c>
       <c r="Q41" s="71"/>
     </row>
-    <row r="42" s="6" customFormat="1" spans="2:17">
+    <row r="42" spans="2:17" s="6" customFormat="1">
       <c r="B42" s="45">
         <v>300038</v>
       </c>
@@ -3428,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="49">
+        <v>0</v>
+      </c>
+      <c r="G42" s="49">
+        <v>0</v>
+      </c>
+      <c r="H42" s="50" t="s">
         <v>130</v>
-      </c>
-      <c r="F42" s="49">
-        <v>0</v>
-      </c>
-      <c r="G42" s="49">
-        <v>0</v>
-      </c>
-      <c r="H42" s="50" t="s">
-        <v>131</v>
       </c>
       <c r="I42" s="49">
         <v>0</v>
@@ -3459,7 +2828,7 @@
       </c>
       <c r="Q42" s="71"/>
     </row>
-    <row r="43" s="6" customFormat="1" spans="2:17">
+    <row r="43" spans="2:17" s="6" customFormat="1">
       <c r="B43" s="45">
         <v>300039</v>
       </c>
@@ -3468,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="49">
+        <v>0</v>
+      </c>
+      <c r="G43" s="49">
+        <v>0</v>
+      </c>
+      <c r="H43" s="50" t="s">
         <v>132</v>
-      </c>
-      <c r="F43" s="49">
-        <v>0</v>
-      </c>
-      <c r="G43" s="49">
-        <v>0</v>
-      </c>
-      <c r="H43" s="50" t="s">
-        <v>133</v>
       </c>
       <c r="I43" s="49">
         <v>0</v>
@@ -3499,7 +2868,7 @@
       </c>
       <c r="Q43" s="71"/>
     </row>
-    <row r="44" s="6" customFormat="1" spans="2:17">
+    <row r="44" spans="2:17" s="6" customFormat="1">
       <c r="B44" s="45">
         <v>300040</v>
       </c>
@@ -3508,16 +2877,16 @@
         <v>0</v>
       </c>
       <c r="E44" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="49">
+        <v>0</v>
+      </c>
+      <c r="G44" s="49">
+        <v>0</v>
+      </c>
+      <c r="H44" s="50" t="s">
         <v>134</v>
-      </c>
-      <c r="F44" s="49">
-        <v>0</v>
-      </c>
-      <c r="G44" s="49">
-        <v>0</v>
-      </c>
-      <c r="H44" s="50" t="s">
-        <v>135</v>
       </c>
       <c r="I44" s="49">
         <v>0</v>
@@ -3539,7 +2908,7 @@
       </c>
       <c r="Q44" s="71"/>
     </row>
-    <row r="45" s="6" customFormat="1" spans="2:17">
+    <row r="45" spans="2:17" s="6" customFormat="1">
       <c r="B45" s="45">
         <v>300041</v>
       </c>
@@ -3548,16 +2917,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="49">
+        <v>0</v>
+      </c>
+      <c r="G45" s="49">
+        <v>0</v>
+      </c>
+      <c r="H45" s="50" t="s">
         <v>136</v>
-      </c>
-      <c r="F45" s="49">
-        <v>0</v>
-      </c>
-      <c r="G45" s="49">
-        <v>0</v>
-      </c>
-      <c r="H45" s="50" t="s">
-        <v>137</v>
       </c>
       <c r="I45" s="49">
         <v>0</v>
@@ -3579,7 +2948,7 @@
       </c>
       <c r="Q45" s="71"/>
     </row>
-    <row r="46" s="6" customFormat="1" spans="2:17">
+    <row r="46" spans="2:17" s="6" customFormat="1">
       <c r="B46" s="45">
         <v>300042</v>
       </c>
@@ -3588,16 +2957,16 @@
         <v>0</v>
       </c>
       <c r="E46" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="49">
+        <v>0</v>
+      </c>
+      <c r="G46" s="49">
+        <v>0</v>
+      </c>
+      <c r="H46" s="50" t="s">
         <v>138</v>
-      </c>
-      <c r="F46" s="49">
-        <v>0</v>
-      </c>
-      <c r="G46" s="49">
-        <v>0</v>
-      </c>
-      <c r="H46" s="50" t="s">
-        <v>139</v>
       </c>
       <c r="I46" s="49">
         <v>0</v>
@@ -3619,7 +2988,7 @@
       </c>
       <c r="Q46" s="71"/>
     </row>
-    <row r="47" s="8" customFormat="1" spans="2:17">
+    <row r="47" spans="2:17" s="8" customFormat="1">
       <c r="B47" s="29"/>
       <c r="C47" s="57"/>
       <c r="D47" s="57"/>
@@ -3637,7 +3006,7 @@
       <c r="P47" s="59"/>
       <c r="Q47" s="73"/>
     </row>
-    <row r="48" s="8" customFormat="1" spans="2:17">
+    <row r="48" spans="2:17" s="8" customFormat="1">
       <c r="B48" s="29"/>
       <c r="C48" s="57"/>
       <c r="D48" s="57"/>
@@ -3655,7 +3024,7 @@
       <c r="P48" s="59"/>
       <c r="Q48" s="73"/>
     </row>
-    <row r="49" s="8" customFormat="1" spans="2:17">
+    <row r="49" spans="2:17" s="8" customFormat="1">
       <c r="B49" s="29"/>
       <c r="C49" s="57"/>
       <c r="D49" s="57"/>
@@ -3673,7 +3042,7 @@
       <c r="P49" s="59"/>
       <c r="Q49" s="73"/>
     </row>
-    <row r="50" s="8" customFormat="1" spans="2:17">
+    <row r="50" spans="2:17" s="8" customFormat="1">
       <c r="B50" s="29"/>
       <c r="C50" s="57"/>
       <c r="D50" s="57"/>
@@ -3691,7 +3060,7 @@
       <c r="P50" s="59"/>
       <c r="Q50" s="73"/>
     </row>
-    <row r="51" s="8" customFormat="1" spans="2:17">
+    <row r="51" spans="2:17" s="8" customFormat="1">
       <c r="B51" s="29"/>
       <c r="C51" s="57"/>
       <c r="D51" s="57"/>
@@ -3709,7 +3078,7 @@
       <c r="P51" s="59"/>
       <c r="Q51" s="73"/>
     </row>
-    <row r="52" s="8" customFormat="1" spans="2:17">
+    <row r="52" spans="2:17" s="8" customFormat="1">
       <c r="B52" s="29"/>
       <c r="C52" s="57"/>
       <c r="D52" s="57"/>
@@ -3727,7 +3096,7 @@
       <c r="P52" s="59"/>
       <c r="Q52" s="73"/>
     </row>
-    <row r="53" s="8" customFormat="1" spans="2:17">
+    <row r="53" spans="2:17" s="8" customFormat="1">
       <c r="B53" s="29"/>
       <c r="C53" s="57"/>
       <c r="D53" s="57"/>
@@ -3745,7 +3114,7 @@
       <c r="P53" s="59"/>
       <c r="Q53" s="73"/>
     </row>
-    <row r="54" s="8" customFormat="1" spans="2:17">
+    <row r="54" spans="2:17" s="8" customFormat="1">
       <c r="B54" s="29"/>
       <c r="C54" s="57"/>
       <c r="D54" s="57"/>
@@ -3763,7 +3132,7 @@
       <c r="P54" s="59"/>
       <c r="Q54" s="73"/>
     </row>
-    <row r="55" s="8" customFormat="1" spans="2:17">
+    <row r="55" spans="2:17" s="8" customFormat="1">
       <c r="B55" s="29"/>
       <c r="C55" s="57"/>
       <c r="D55" s="57"/>
@@ -3781,7 +3150,7 @@
       <c r="P55" s="59"/>
       <c r="Q55" s="73"/>
     </row>
-    <row r="56" s="8" customFormat="1" spans="2:17">
+    <row r="56" spans="2:17" s="8" customFormat="1">
       <c r="B56" s="29"/>
       <c r="C56" s="57"/>
       <c r="D56" s="57"/>
@@ -3799,7 +3168,7 @@
       <c r="P56" s="59"/>
       <c r="Q56" s="73"/>
     </row>
-    <row r="57" s="8" customFormat="1" spans="2:17">
+    <row r="57" spans="2:17" s="8" customFormat="1">
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
       <c r="D57" s="57"/>
@@ -3820,6 +3189,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F880955F-ED8D-4E9B-B54B-C2270392F61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A303B879-CBDE-4BCF-B8EF-185F4A669C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="13875" windowHeight="20116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,23 +514,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -538,7 +538,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1004,32 +1004,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="7.265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="2.46484375" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.265625" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.1328125" style="5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.19921875" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="46.59765625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="5.3984375" style="5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.265625" style="5" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="18.59765625" style="5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="29.1328125" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.86328125" style="5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1328125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="4.1328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" style="5" customWidth="1"/>
     <col min="17" max="17" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="90">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="30">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="89.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="89.1" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="30">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
         <v>300001</v>
@@ -1274,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
         <v>300002</v>
@@ -1319,7 +1319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <v>300003</v>
@@ -1364,7 +1364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="30">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
         <v>300004</v>
@@ -1412,7 +1412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="30">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <v>300005</v>
@@ -1460,7 +1460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="1" customFormat="1">
       <c r="A10" s="12"/>
       <c r="B10" s="13">
         <v>300006</v>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="30">
       <c r="A11" s="17"/>
       <c r="B11" s="18">
         <v>300007</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="Q11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="30">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <v>300008</v>
@@ -1581,7 +1581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="8"/>
       <c r="B13" s="9">
         <v>300009</v>
@@ -1618,7 +1618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
         <v>300010</v>
@@ -1655,7 +1655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="8"/>
       <c r="B15" s="9">
         <v>300011</v>
@@ -1692,7 +1692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="B16" s="9">
         <v>300012</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17">
       <c r="B17" s="9">
         <v>300013</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17">
       <c r="B18" s="9">
         <v>300014</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" s="36" customFormat="1">
       <c r="B19" s="29">
         <v>300015</v>
       </c>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="Q19" s="35"/>
     </row>
-    <row r="20" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" s="44" customFormat="1">
       <c r="B20" s="37">
         <v>300016</v>
       </c>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="Q20" s="43"/>
     </row>
-    <row r="21" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" s="44" customFormat="1">
       <c r="B21" s="37">
         <v>300017</v>
       </c>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="Q21" s="43"/>
     </row>
-    <row r="22" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" s="44" customFormat="1">
       <c r="B22" s="37">
         <v>300018</v>
       </c>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="Q22" s="43"/>
     </row>
-    <row r="23" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" s="44" customFormat="1">
       <c r="B23" s="37">
         <v>300019</v>
       </c>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="Q23" s="43"/>
     </row>
-    <row r="24" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" s="44" customFormat="1">
       <c r="B24" s="37">
         <v>300020</v>
       </c>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="Q24" s="43"/>
     </row>
-    <row r="25" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" s="44" customFormat="1">
       <c r="B25" s="37">
         <v>300021</v>
       </c>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="Q25" s="43"/>
     </row>
-    <row r="26" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" s="44" customFormat="1">
       <c r="B26" s="37">
         <v>300022</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="Q26" s="43"/>
     </row>
-    <row r="27" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" s="44" customFormat="1">
       <c r="B27" s="37">
         <v>300023</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="Q27" s="43"/>
     </row>
-    <row r="28" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B28" s="37">
         <v>300024</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="Q28" s="43"/>
     </row>
-    <row r="29" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B29" s="37">
         <v>300025</v>
       </c>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="Q29" s="43"/>
     </row>
-    <row r="30" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" s="44" customFormat="1">
       <c r="B30" s="37">
         <v>300026</v>
       </c>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="Q30" s="43"/>
     </row>
-    <row r="31" spans="2:17" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" s="44" customFormat="1">
       <c r="B31" s="37">
         <v>300027</v>
       </c>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="Q31" s="43"/>
     </row>
-    <row r="32" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" s="44" customFormat="1">
       <c r="B32" s="37">
         <v>300028</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="Q32" s="43"/>
     </row>
-    <row r="33" spans="2:17" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" s="44" customFormat="1">
       <c r="B33" s="37">
         <v>300029</v>
       </c>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="Q33" s="43"/>
     </row>
-    <row r="34" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" s="44" customFormat="1">
       <c r="B34" s="37">
         <v>300030</v>
       </c>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="Q34" s="43"/>
     </row>
-    <row r="35" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B35" s="37">
         <v>300031</v>
       </c>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="Q35" s="43"/>
     </row>
-    <row r="36" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" s="44" customFormat="1">
       <c r="B36" s="37">
         <v>300032</v>
       </c>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="Q36" s="43"/>
     </row>
-    <row r="37" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" s="44" customFormat="1">
       <c r="B37" s="37">
         <v>300033</v>
       </c>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="Q37" s="43"/>
     </row>
-    <row r="38" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" s="44" customFormat="1">
       <c r="B38" s="37">
         <v>300034</v>
       </c>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="Q38" s="43"/>
     </row>
-    <row r="39" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" s="44" customFormat="1">
       <c r="B39" s="37">
         <v>300035</v>
       </c>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="Q39" s="43"/>
     </row>
-    <row r="40" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" s="44" customFormat="1">
       <c r="B40" s="37">
         <v>300036</v>
       </c>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="Q40" s="43"/>
     </row>
-    <row r="41" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" s="44" customFormat="1">
       <c r="B41" s="37">
         <v>300037</v>
       </c>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="Q41" s="43"/>
     </row>
-    <row r="42" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" s="44" customFormat="1">
       <c r="B42" s="37">
         <v>300038</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="Q42" s="43"/>
     </row>
-    <row r="43" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B43" s="37">
         <v>300039</v>
       </c>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="Q43" s="43"/>
     </row>
-    <row r="44" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" s="44" customFormat="1">
       <c r="B44" s="37">
         <v>300040</v>
       </c>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="Q44" s="43"/>
     </row>
-    <row r="45" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B45" s="37">
         <v>300041</v>
       </c>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="Q45" s="43"/>
     </row>
-    <row r="46" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B46" s="37">
         <v>300042</v>
       </c>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="Q46" s="43"/>
     </row>
-    <row r="47" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B47" s="37">
         <v>300043</v>
       </c>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="Q47" s="43"/>
     </row>
-    <row r="48" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B48" s="37">
         <v>300044</v>
       </c>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="Q48" s="43"/>
     </row>
-    <row r="49" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B49" s="37">
         <v>300045</v>
       </c>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Q49" s="43"/>
     </row>
-    <row r="50" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B50" s="37">
         <v>300046</v>
       </c>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="Q50" s="43"/>
     </row>
-    <row r="51" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B51" s="37">
         <v>300047</v>
       </c>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="Q51" s="43"/>
     </row>
-    <row r="52" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B52" s="37">
         <v>300048</v>
       </c>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="Q52" s="43"/>
     </row>
-    <row r="53" spans="2:17" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B53" s="37">
         <v>300049</v>
       </c>
@@ -3155,13 +3155,13 @@
       </c>
       <c r="Q53" s="43"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:17">
       <c r="B54" s="9"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:17">
       <c r="B55" s="9"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:17">
       <c r="B56" s="9"/>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A303B879-CBDE-4BCF-B8EF-185F4A669C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A3C60-4285-4D70-90AB-9E9D46C33EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="156">
   <si>
     <t>##var</t>
   </si>
@@ -508,6 +508,12 @@
   <si>
     <t>310128</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200002</t>
+  </si>
+  <si>
+    <t>Natalia</t>
   </si>
 </sst>
 </file>
@@ -1004,32 +1010,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5703125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="5" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="29.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="5" customWidth="1"/>
     <col min="15" max="15" width="5.140625" style="5" customWidth="1"/>
     <col min="16" max="16" width="4.140625" style="5" customWidth="1"/>
     <col min="17" max="17" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="90">
+    <row r="1" spans="1:17" ht="120">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30">
+    <row r="2" spans="1:17" ht="255">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30">
+    <row r="5" spans="1:17" ht="135">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
         <v>300001</v>
@@ -1274,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" ht="105">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
         <v>300002</v>
@@ -1319,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" ht="45">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <v>300003</v>
@@ -1364,7 +1370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30">
+    <row r="8" spans="1:17" ht="105">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
         <v>300004</v>
@@ -1412,7 +1418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30">
+    <row r="9" spans="1:17" ht="105">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <v>300005</v>
@@ -1503,12 +1509,14 @@
       </c>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="30">
+    <row r="11" spans="1:17" s="2" customFormat="1">
       <c r="A11" s="17"/>
       <c r="B11" s="18">
         <v>300007</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="D11" s="18">
         <v>0</v>
       </c>
@@ -1534,8 +1542,12 @@
         <v>0</v>
       </c>
       <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="20"/>
+      <c r="M11" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" s="20">
+        <v>0</v>
+      </c>
       <c r="O11" s="20">
         <v>12</v>
       </c>
@@ -2157,7 +2169,7 @@
       </c>
       <c r="Q27" s="43"/>
     </row>
-    <row r="28" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="28" spans="2:17" s="44" customFormat="1">
       <c r="B28" s="37">
         <v>300024</v>
       </c>
@@ -2197,7 +2209,7 @@
       </c>
       <c r="Q28" s="43"/>
     </row>
-    <row r="29" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="29" spans="2:17" s="44" customFormat="1">
       <c r="B29" s="37">
         <v>300025</v>
       </c>
@@ -2437,7 +2449,7 @@
       </c>
       <c r="Q34" s="43"/>
     </row>
-    <row r="35" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="35" spans="2:17" s="44" customFormat="1">
       <c r="B35" s="37">
         <v>300031</v>
       </c>
@@ -2677,7 +2689,7 @@
       </c>
       <c r="Q40" s="43"/>
     </row>
-    <row r="41" spans="2:17" s="44" customFormat="1">
+    <row r="41" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B41" s="37">
         <v>300037</v>
       </c>
@@ -2757,7 +2769,7 @@
       </c>
       <c r="Q42" s="43"/>
     </row>
-    <row r="43" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="43" spans="2:17" s="44" customFormat="1">
       <c r="B43" s="37">
         <v>300039</v>
       </c>
@@ -2837,7 +2849,7 @@
       </c>
       <c r="Q44" s="43"/>
     </row>
-    <row r="45" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="45" spans="2:17" s="44" customFormat="1">
       <c r="B45" s="37">
         <v>300041</v>
       </c>
@@ -2877,7 +2889,7 @@
       </c>
       <c r="Q45" s="43"/>
     </row>
-    <row r="46" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="46" spans="2:17" s="44" customFormat="1">
       <c r="B46" s="37">
         <v>300042</v>
       </c>
@@ -2917,7 +2929,7 @@
       </c>
       <c r="Q46" s="43"/>
     </row>
-    <row r="47" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="47" spans="2:17" s="44" customFormat="1">
       <c r="B47" s="37">
         <v>300043</v>
       </c>
@@ -2951,7 +2963,7 @@
       </c>
       <c r="Q47" s="43"/>
     </row>
-    <row r="48" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="48" spans="2:17" s="44" customFormat="1">
       <c r="B48" s="37">
         <v>300044</v>
       </c>
@@ -2985,7 +2997,7 @@
       </c>
       <c r="Q48" s="43"/>
     </row>
-    <row r="49" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="49" spans="2:17" s="44" customFormat="1">
       <c r="B49" s="37">
         <v>300045</v>
       </c>
@@ -3019,7 +3031,7 @@
       </c>
       <c r="Q49" s="43"/>
     </row>
-    <row r="50" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="50" spans="2:17" s="44" customFormat="1">
       <c r="B50" s="37">
         <v>300046</v>
       </c>
@@ -3053,7 +3065,7 @@
       </c>
       <c r="Q50" s="43"/>
     </row>
-    <row r="51" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="51" spans="2:17" s="44" customFormat="1">
       <c r="B51" s="37">
         <v>300047</v>
       </c>
@@ -3087,7 +3099,7 @@
       </c>
       <c r="Q51" s="43"/>
     </row>
-    <row r="52" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="52" spans="2:17" s="44" customFormat="1">
       <c r="B52" s="37">
         <v>300048</v>
       </c>
@@ -3121,7 +3133,7 @@
       </c>
       <c r="Q52" s="43"/>
     </row>
-    <row r="53" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="53" spans="2:17" s="44" customFormat="1">
       <c r="B53" s="37">
         <v>300049</v>
       </c>

--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A3C60-4285-4D70-90AB-9E9D46C33EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB930F61-5935-4433-A4A3-6670B7F30157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="750" windowWidth="20220" windowHeight="21225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1035,7 +1035,7 @@
     <col min="17" max="17" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="120">
+    <row r="1" spans="1:17" ht="30">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="255">
+    <row r="2" spans="1:17" ht="30">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="135">
+    <row r="5" spans="1:17" ht="30">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
         <v>300001</v>
@@ -1280,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="105">
+    <row r="6" spans="1:17" ht="45">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
         <v>300002</v>
@@ -1325,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="45">
+    <row r="7" spans="1:17">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <v>300003</v>
@@ -1370,7 +1370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="105">
+    <row r="8" spans="1:17" ht="30">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
         <v>300004</v>
@@ -1418,7 +1418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="105">
+    <row r="9" spans="1:17" ht="30">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <v>300005</v>
@@ -1546,7 +1546,7 @@
         <v>154</v>
       </c>
       <c r="N11" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="20">
         <v>12</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="Q11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="30">
+    <row r="12" spans="1:17" ht="45">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <v>300008</v>
@@ -1630,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" ht="30">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
         <v>300010</v>
@@ -1667,7 +1667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" ht="30">
       <c r="A15" s="8"/>
       <c r="B15" s="9">
         <v>300011</v>
@@ -1704,7 +1704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" ht="30">
       <c r="B16" s="9">
         <v>300012</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:17" s="36" customFormat="1">
+    <row r="19" spans="2:17" s="36" customFormat="1" ht="30">
       <c r="B19" s="29">
         <v>300015</v>
       </c>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Q20" s="43"/>
     </row>
-    <row r="21" spans="2:17" s="44" customFormat="1">
+    <row r="21" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B21" s="37">
         <v>300017</v>
       </c>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="Q23" s="43"/>
     </row>
-    <row r="24" spans="2:17" s="44" customFormat="1">
+    <row r="24" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B24" s="37">
         <v>300020</v>
       </c>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="Q26" s="43"/>
     </row>
-    <row r="27" spans="2:17" s="44" customFormat="1">
+    <row r="27" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B27" s="37">
         <v>300023</v>
       </c>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="Q36" s="43"/>
     </row>
-    <row r="37" spans="2:17" s="44" customFormat="1">
+    <row r="37" spans="2:17" s="44" customFormat="1" ht="45">
       <c r="B37" s="37">
         <v>300033</v>
       </c>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="Q37" s="43"/>
     </row>
-    <row r="38" spans="2:17" s="44" customFormat="1">
+    <row r="38" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B38" s="37">
         <v>300034</v>
       </c>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="Q38" s="43"/>
     </row>
-    <row r="39" spans="2:17" s="44" customFormat="1">
+    <row r="39" spans="2:17" s="44" customFormat="1" ht="45">
       <c r="B39" s="37">
         <v>300035</v>
       </c>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="Q39" s="43"/>
     </row>
-    <row r="40" spans="2:17" s="44" customFormat="1">
+    <row r="40" spans="2:17" s="44" customFormat="1" ht="45">
       <c r="B40" s="37">
         <v>300036</v>
       </c>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="Q40" s="43"/>
     </row>
-    <row r="41" spans="2:17" s="44" customFormat="1" ht="30">
+    <row r="41" spans="2:17" s="44" customFormat="1" ht="45">
       <c r="B41" s="37">
         <v>300037</v>
       </c>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="Q42" s="43"/>
     </row>
-    <row r="43" spans="2:17" s="44" customFormat="1">
+    <row r="43" spans="2:17" s="44" customFormat="1" ht="30">
       <c r="B43" s="37">
         <v>300039</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="Q43" s="43"/>
     </row>
-    <row r="44" spans="2:17" s="44" customFormat="1">
+    <row r="44" spans="2:17" s="44" customFormat="1" ht="45">
       <c r="B44" s="37">
         <v>300040</v>
       </c>

--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB930F61-5935-4433-A4A3-6670B7F30157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F2C1D2-6BC2-4367-B77A-5B5CEA6DDFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="750" windowWidth="20220" windowHeight="21225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29700" yWindow="11265" windowWidth="20145" windowHeight="21225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,10 +510,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>200002</t>
-  </si>
-  <si>
     <t>Natalia</t>
+  </si>
+  <si>
+    <t>230002</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1515,7 +1515,7 @@
         <v>300007</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="18">
         <v>0</v>
@@ -1543,10 +1543,10 @@
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="20">
         <v>12</v>

--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F2C1D2-6BC2-4367-B77A-5B5CEA6DDFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F2954-CC7C-4797-98AD-EFED04C2DD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29700" yWindow="11265" windowWidth="20145" windowHeight="21225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,9 +364,6 @@
     <t>F1_hall_6</t>
   </si>
   <si>
-    <t>310090,310091,310092,310093,310094,310095</t>
-  </si>
-  <si>
     <t>F1_hall_10</t>
   </si>
   <si>
@@ -447,10 +444,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>310125,310126,310127</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>310108,310109</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -514,29 +507,37 @@
   </si>
   <si>
     <t>230002</t>
+  </si>
+  <si>
+    <t>310125,310126,310127,310128</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>310090,310091,310092,310093,310094</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -544,7 +545,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -599,7 +600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,7 +676,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,58 +688,31 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1010,32 +984,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.73046875" customWidth="1"/>
+    <col min="2" max="2" width="19.265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.73046875" style="24" customWidth="1"/>
     <col min="9" max="9" width="9" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="29.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.265625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.59765625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="29.1328125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.73046875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="5.1328125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="4.1328125" style="5" customWidth="1"/>
     <col min="17" max="17" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
+    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30">
+    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1135,7 +1109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -1185,7 +1159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="89.1" customHeight="1">
+    <row r="4" spans="1:17" ht="89.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
@@ -1235,7 +1209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30">
+    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
         <v>300001</v>
@@ -1280,7 +1254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45">
+    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
         <v>300002</v>
@@ -1325,7 +1299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <v>300003</v>
@@ -1370,7 +1344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30">
+    <row r="8" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
         <v>300004</v>
@@ -1418,7 +1392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30">
+    <row r="9" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <v>300005</v>
@@ -1466,7 +1440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1">
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13">
         <v>300006</v>
@@ -1509,13 +1483,13 @@
       </c>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="18">
         <v>300007</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" s="18">
         <v>0</v>
@@ -1543,7 +1517,7 @@
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N11" s="20">
         <v>0</v>
@@ -1556,7 +1530,7 @@
       </c>
       <c r="Q11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="45">
+    <row r="12" spans="1:17" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <v>300008</v>
@@ -1575,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -1593,7 +1567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="9">
         <v>300009</v>
@@ -1630,7 +1604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30">
+    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
         <v>300010</v>
@@ -1667,7 +1641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30">
+    <row r="15" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9">
         <v>300011</v>
@@ -1686,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -1704,7 +1678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30">
+    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>300012</v>
       </c>
@@ -1721,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -1739,7 +1713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>300013</v>
       </c>
@@ -1774,7 +1748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>300014</v>
       </c>
@@ -1809,7 +1783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:17" s="36" customFormat="1" ht="30">
+    <row r="19" spans="2:17" s="36" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="B19" s="29">
         <v>300015</v>
       </c>
@@ -1827,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I19" s="32">
         <v>0</v>
@@ -1849,1331 +1823,1140 @@
       </c>
       <c r="Q19" s="35"/>
     </row>
-    <row r="20" spans="2:17" s="44" customFormat="1">
-      <c r="B20" s="37">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="9">
         <v>300016</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="37">
-        <v>0</v>
-      </c>
-      <c r="E20" s="39" t="s">
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="40">
-        <v>0</v>
-      </c>
-      <c r="G20" s="40">
-        <v>0</v>
-      </c>
-      <c r="H20" s="41" t="s">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>12</v>
+      </c>
+      <c r="P20" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="27" x14ac:dyDescent="0.3">
+      <c r="B21" s="9">
+        <v>300017</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="40">
-        <v>0</v>
-      </c>
-      <c r="J20" s="40">
-        <v>3</v>
-      </c>
-      <c r="K20" s="40">
-        <v>0</v>
-      </c>
-      <c r="L20" s="40"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40">
-        <v>12</v>
-      </c>
-      <c r="P20" s="40">
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>3</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>30</v>
+      </c>
+      <c r="P21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="9">
+        <v>300018</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>3</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>12</v>
+      </c>
+      <c r="P22" s="5">
         <v>8</v>
       </c>
-      <c r="Q20" s="43"/>
-    </row>
-    <row r="21" spans="2:17" s="44" customFormat="1" ht="30">
-      <c r="B21" s="37">
-        <v>300017</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="37">
-        <v>0</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="40">
-        <v>0</v>
-      </c>
-      <c r="G21" s="40">
-        <v>0</v>
-      </c>
-      <c r="H21" s="41" t="s">
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="9">
+        <v>300019</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="40">
-        <v>0</v>
-      </c>
-      <c r="J21" s="40">
-        <v>3</v>
-      </c>
-      <c r="K21" s="40">
-        <v>0</v>
-      </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40">
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>12</v>
+      </c>
+      <c r="P23" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="27" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
+        <v>300020</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>3</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
         <v>30</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P24" s="5">
         <v>5</v>
       </c>
-      <c r="Q21" s="43"/>
-    </row>
-    <row r="22" spans="2:17" s="44" customFormat="1">
-      <c r="B22" s="37">
-        <v>300018</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="37">
-        <v>0</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="40">
-        <v>0</v>
-      </c>
-      <c r="G22" s="40">
-        <v>0</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="40">
-        <v>0</v>
-      </c>
-      <c r="J22" s="40">
-        <v>3</v>
-      </c>
-      <c r="K22" s="40">
-        <v>0</v>
-      </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40">
-        <v>12</v>
-      </c>
-      <c r="P22" s="40">
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>300021</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>3</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <v>12</v>
+      </c>
+      <c r="P25" s="5">
         <v>8</v>
       </c>
-      <c r="Q22" s="43"/>
-    </row>
-    <row r="23" spans="2:17" s="44" customFormat="1">
-      <c r="B23" s="37">
-        <v>300019</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="37">
-        <v>0</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="40">
-        <v>0</v>
-      </c>
-      <c r="G23" s="40">
-        <v>0</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="40">
-        <v>0</v>
-      </c>
-      <c r="J23" s="40">
-        <v>3</v>
-      </c>
-      <c r="K23" s="40">
-        <v>0</v>
-      </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40">
-        <v>12</v>
-      </c>
-      <c r="P23" s="40">
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>300022</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>12</v>
+      </c>
+      <c r="P26" s="5">
         <v>8</v>
       </c>
-      <c r="Q23" s="43"/>
-    </row>
-    <row r="24" spans="2:17" s="44" customFormat="1" ht="30">
-      <c r="B24" s="37">
-        <v>300020</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="37">
-        <v>0</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="40">
-        <v>0</v>
-      </c>
-      <c r="G24" s="40">
-        <v>0</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="40">
-        <v>0</v>
-      </c>
-      <c r="J24" s="40">
-        <v>3</v>
-      </c>
-      <c r="K24" s="40">
-        <v>0</v>
-      </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40">
+    </row>
+    <row r="27" spans="2:17" ht="27" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <v>300023</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>3</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
         <v>30</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P27" s="5">
         <v>5</v>
       </c>
-      <c r="Q24" s="43"/>
-    </row>
-    <row r="25" spans="2:17" s="44" customFormat="1">
-      <c r="B25" s="37">
-        <v>300021</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="37">
-        <v>0</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="40">
-        <v>0</v>
-      </c>
-      <c r="G25" s="40">
-        <v>0</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" s="40">
-        <v>0</v>
-      </c>
-      <c r="J25" s="40">
-        <v>3</v>
-      </c>
-      <c r="K25" s="40">
-        <v>0</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40">
-        <v>12</v>
-      </c>
-      <c r="P25" s="40">
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="9">
+        <v>300024</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>3</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <v>12</v>
+      </c>
+      <c r="P28" s="5">
         <v>8</v>
       </c>
-      <c r="Q25" s="43"/>
-    </row>
-    <row r="26" spans="2:17" s="44" customFormat="1">
-      <c r="B26" s="37">
-        <v>300022</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="37">
-        <v>0</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="40">
-        <v>0</v>
-      </c>
-      <c r="G26" s="40">
-        <v>0</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="40">
-        <v>0</v>
-      </c>
-      <c r="J26" s="40">
-        <v>3</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40">
-        <v>12</v>
-      </c>
-      <c r="P26" s="40">
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="9">
+        <v>300025</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>3</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <v>12</v>
+      </c>
+      <c r="P29" s="5">
         <v>8</v>
       </c>
-      <c r="Q26" s="43"/>
-    </row>
-    <row r="27" spans="2:17" s="44" customFormat="1" ht="30">
-      <c r="B27" s="37">
-        <v>300023</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="37">
-        <v>0</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="40">
-        <v>0</v>
-      </c>
-      <c r="G27" s="40">
-        <v>0</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" s="40">
-        <v>0</v>
-      </c>
-      <c r="J27" s="40">
-        <v>3</v>
-      </c>
-      <c r="K27" s="40">
-        <v>0</v>
-      </c>
-      <c r="L27" s="40"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40">
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="9">
+        <v>300026</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>3</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <v>18</v>
+      </c>
+      <c r="P30" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="9">
+        <v>300027</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>3</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <v>10</v>
+      </c>
+      <c r="P31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="9">
+        <v>300028</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>3</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>18</v>
+      </c>
+      <c r="P32" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>300029</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>3</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>10</v>
+      </c>
+      <c r="P33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="9">
+        <v>300030</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>3</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <v>18</v>
+      </c>
+      <c r="P34" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="9">
+        <v>300031</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>3</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="O35" s="5">
+        <v>12</v>
+      </c>
+      <c r="P35" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="9">
+        <v>300032</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <v>18</v>
+      </c>
+      <c r="P36" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="9">
+        <v>300033</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>3</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
         <v>30</v>
       </c>
-      <c r="P27" s="40">
+      <c r="P37" s="5">
         <v>5</v>
       </c>
-      <c r="Q27" s="43"/>
-    </row>
-    <row r="28" spans="2:17" s="44" customFormat="1">
-      <c r="B28" s="37">
-        <v>300024</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="37">
-        <v>0</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="40">
-        <v>0</v>
-      </c>
-      <c r="G28" s="40">
-        <v>0</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28" s="40">
-        <v>0</v>
-      </c>
-      <c r="J28" s="40">
-        <v>3</v>
-      </c>
-      <c r="K28" s="40">
-        <v>0</v>
-      </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40">
-        <v>12</v>
-      </c>
-      <c r="P28" s="40">
+    </row>
+    <row r="38" spans="2:16" ht="27" x14ac:dyDescent="0.3">
+      <c r="B38" s="9">
+        <v>300034</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>3</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <v>30</v>
+      </c>
+      <c r="P38" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="9">
+        <v>300035</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>3</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>30</v>
+      </c>
+      <c r="P39" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="9">
+        <v>300036</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>3</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>30</v>
+      </c>
+      <c r="P40" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B41" s="9">
+        <v>300037</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>3</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <v>30</v>
+      </c>
+      <c r="P41" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="9">
+        <v>300038</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>3</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="O42" s="5">
+        <v>30</v>
+      </c>
+      <c r="P42" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="27" x14ac:dyDescent="0.3">
+      <c r="B43" s="9">
+        <v>300039</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>3</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5">
+        <v>12</v>
+      </c>
+      <c r="P43" s="5">
         <v>8</v>
       </c>
-      <c r="Q28" s="43"/>
-    </row>
-    <row r="29" spans="2:17" s="44" customFormat="1">
-      <c r="B29" s="37">
-        <v>300025</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="37">
-        <v>0</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="40">
-        <v>0</v>
-      </c>
-      <c r="G29" s="40">
-        <v>0</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="40">
-        <v>0</v>
-      </c>
-      <c r="J29" s="40">
-        <v>3</v>
-      </c>
-      <c r="K29" s="40">
-        <v>0</v>
-      </c>
-      <c r="L29" s="40"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40">
-        <v>12</v>
-      </c>
-      <c r="P29" s="40">
+    </row>
+    <row r="44" spans="2:16" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="9">
+        <v>300040</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>3</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <v>18</v>
+      </c>
+      <c r="P44" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="9">
+        <v>300041</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>3</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0</v>
+      </c>
+      <c r="O45" s="5">
+        <v>12</v>
+      </c>
+      <c r="P45" s="5">
         <v>8</v>
       </c>
-      <c r="Q29" s="43"/>
-    </row>
-    <row r="30" spans="2:17" s="44" customFormat="1">
-      <c r="B30" s="37">
-        <v>300026</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="37">
-        <v>0</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="40">
-        <v>0</v>
-      </c>
-      <c r="G30" s="40">
-        <v>0</v>
-      </c>
-      <c r="H30" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="40">
-        <v>0</v>
-      </c>
-      <c r="J30" s="40">
-        <v>3</v>
-      </c>
-      <c r="K30" s="40">
-        <v>0</v>
-      </c>
-      <c r="L30" s="40"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40">
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="9">
+        <v>300042</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>3</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="O46" s="5">
+        <v>12</v>
+      </c>
+      <c r="P46" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="9">
+        <v>300043</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>3</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="O47" s="5">
+        <v>12</v>
+      </c>
+      <c r="P47" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="9">
+        <v>300044</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>3</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="O48" s="5">
+        <v>12</v>
+      </c>
+      <c r="P48" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="9">
+        <v>300045</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <v>3</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="O49" s="5">
+        <v>12</v>
+      </c>
+      <c r="P49" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="9">
+        <v>300046</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>3</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <v>12</v>
+      </c>
+      <c r="P50" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" s="9">
+        <v>300047</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <v>3</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0</v>
+      </c>
+      <c r="O51" s="5">
+        <v>12</v>
+      </c>
+      <c r="P51" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" s="9">
+        <v>300048</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>3</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5">
+        <v>12</v>
+      </c>
+      <c r="P52" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53" s="9">
+        <v>300049</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>3</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0</v>
+      </c>
+      <c r="O53" s="5">
         <v>18</v>
       </c>
-      <c r="P30" s="40">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="43"/>
-    </row>
-    <row r="31" spans="2:17" s="44" customFormat="1">
-      <c r="B31" s="37">
-        <v>300027</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="37">
-        <v>0</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="40">
-        <v>0</v>
-      </c>
-      <c r="G31" s="40">
-        <v>0</v>
-      </c>
-      <c r="H31" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="40">
-        <v>0</v>
-      </c>
-      <c r="J31" s="40">
-        <v>3</v>
-      </c>
-      <c r="K31" s="40">
-        <v>0</v>
-      </c>
-      <c r="L31" s="40"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40">
-        <v>10</v>
-      </c>
-      <c r="P31" s="40">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="43"/>
-    </row>
-    <row r="32" spans="2:17" s="44" customFormat="1">
-      <c r="B32" s="37">
-        <v>300028</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="37">
-        <v>0</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="40">
-        <v>0</v>
-      </c>
-      <c r="G32" s="40">
-        <v>0</v>
-      </c>
-      <c r="H32" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="40">
-        <v>0</v>
-      </c>
-      <c r="J32" s="40">
-        <v>3</v>
-      </c>
-      <c r="K32" s="40">
-        <v>0</v>
-      </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40">
-        <v>18</v>
-      </c>
-      <c r="P32" s="40">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="43"/>
-    </row>
-    <row r="33" spans="2:17" s="44" customFormat="1">
-      <c r="B33" s="37">
-        <v>300029</v>
-      </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="37">
-        <v>0</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="40">
-        <v>0</v>
-      </c>
-      <c r="G33" s="40">
-        <v>0</v>
-      </c>
-      <c r="H33" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="I33" s="40">
-        <v>0</v>
-      </c>
-      <c r="J33" s="40">
-        <v>3</v>
-      </c>
-      <c r="K33" s="40">
-        <v>0</v>
-      </c>
-      <c r="L33" s="40"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40">
-        <v>10</v>
-      </c>
-      <c r="P33" s="40">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="43"/>
-    </row>
-    <row r="34" spans="2:17" s="44" customFormat="1">
-      <c r="B34" s="37">
-        <v>300030</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="37">
-        <v>0</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="40">
-        <v>0</v>
-      </c>
-      <c r="G34" s="40">
-        <v>0</v>
-      </c>
-      <c r="H34" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" s="40">
-        <v>0</v>
-      </c>
-      <c r="J34" s="40">
-        <v>3</v>
-      </c>
-      <c r="K34" s="40">
-        <v>0</v>
-      </c>
-      <c r="L34" s="40"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40">
-        <v>18</v>
-      </c>
-      <c r="P34" s="40">
-        <v>12</v>
-      </c>
-      <c r="Q34" s="43"/>
-    </row>
-    <row r="35" spans="2:17" s="44" customFormat="1">
-      <c r="B35" s="37">
-        <v>300031</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="37">
-        <v>0</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="40">
-        <v>0</v>
-      </c>
-      <c r="G35" s="40">
-        <v>0</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="40">
-        <v>0</v>
-      </c>
-      <c r="J35" s="40">
-        <v>3</v>
-      </c>
-      <c r="K35" s="40">
-        <v>0</v>
-      </c>
-      <c r="L35" s="40"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40">
-        <v>12</v>
-      </c>
-      <c r="P35" s="40">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="43"/>
-    </row>
-    <row r="36" spans="2:17" s="44" customFormat="1">
-      <c r="B36" s="37">
-        <v>300032</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="37">
-        <v>0</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="40">
-        <v>0</v>
-      </c>
-      <c r="G36" s="40">
-        <v>0</v>
-      </c>
-      <c r="H36" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="I36" s="40">
-        <v>0</v>
-      </c>
-      <c r="J36" s="40">
-        <v>3</v>
-      </c>
-      <c r="K36" s="40">
-        <v>0</v>
-      </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40">
-        <v>18</v>
-      </c>
-      <c r="P36" s="40">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="43"/>
-    </row>
-    <row r="37" spans="2:17" s="44" customFormat="1" ht="45">
-      <c r="B37" s="37">
-        <v>300033</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="40">
-        <v>0</v>
-      </c>
-      <c r="G37" s="40">
-        <v>0</v>
-      </c>
-      <c r="H37" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="I37" s="40">
-        <v>0</v>
-      </c>
-      <c r="J37" s="40">
-        <v>3</v>
-      </c>
-      <c r="K37" s="40">
-        <v>0</v>
-      </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40">
-        <v>30</v>
-      </c>
-      <c r="P37" s="40">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="43"/>
-    </row>
-    <row r="38" spans="2:17" s="44" customFormat="1" ht="30">
-      <c r="B38" s="37">
-        <v>300034</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="37">
-        <v>0</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="40">
-        <v>0</v>
-      </c>
-      <c r="G38" s="40">
-        <v>0</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="I38" s="40">
-        <v>0</v>
-      </c>
-      <c r="J38" s="40">
-        <v>3</v>
-      </c>
-      <c r="K38" s="40">
-        <v>0</v>
-      </c>
-      <c r="L38" s="40"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40">
-        <v>30</v>
-      </c>
-      <c r="P38" s="40">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="43"/>
-    </row>
-    <row r="39" spans="2:17" s="44" customFormat="1" ht="45">
-      <c r="B39" s="37">
-        <v>300035</v>
-      </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="37">
-        <v>0</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="40">
-        <v>0</v>
-      </c>
-      <c r="G39" s="40">
-        <v>0</v>
-      </c>
-      <c r="H39" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="I39" s="40">
-        <v>0</v>
-      </c>
-      <c r="J39" s="40">
-        <v>3</v>
-      </c>
-      <c r="K39" s="40">
-        <v>0</v>
-      </c>
-      <c r="L39" s="40"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40">
-        <v>30</v>
-      </c>
-      <c r="P39" s="40">
-        <v>5</v>
-      </c>
-      <c r="Q39" s="43"/>
-    </row>
-    <row r="40" spans="2:17" s="44" customFormat="1" ht="45">
-      <c r="B40" s="37">
-        <v>300036</v>
-      </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="37">
-        <v>0</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="40">
-        <v>0</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="I40" s="40">
-        <v>0</v>
-      </c>
-      <c r="J40" s="40">
-        <v>3</v>
-      </c>
-      <c r="K40" s="40">
-        <v>0</v>
-      </c>
-      <c r="L40" s="40"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40">
-        <v>30</v>
-      </c>
-      <c r="P40" s="40">
-        <v>5</v>
-      </c>
-      <c r="Q40" s="43"/>
-    </row>
-    <row r="41" spans="2:17" s="44" customFormat="1" ht="45">
-      <c r="B41" s="37">
-        <v>300037</v>
-      </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="37">
-        <v>0</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="40">
-        <v>0</v>
-      </c>
-      <c r="G41" s="40">
-        <v>0</v>
-      </c>
-      <c r="H41" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" s="40">
-        <v>0</v>
-      </c>
-      <c r="J41" s="40">
-        <v>3</v>
-      </c>
-      <c r="K41" s="40">
-        <v>0</v>
-      </c>
-      <c r="L41" s="40"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40">
-        <v>30</v>
-      </c>
-      <c r="P41" s="40">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="43"/>
-    </row>
-    <row r="42" spans="2:17" s="44" customFormat="1">
-      <c r="B42" s="37">
-        <v>300038</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="37">
-        <v>0</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="40">
-        <v>0</v>
-      </c>
-      <c r="G42" s="40">
-        <v>0</v>
-      </c>
-      <c r="H42" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="40">
-        <v>0</v>
-      </c>
-      <c r="J42" s="40">
-        <v>3</v>
-      </c>
-      <c r="K42" s="40">
-        <v>0</v>
-      </c>
-      <c r="L42" s="40"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40">
-        <v>30</v>
-      </c>
-      <c r="P42" s="40">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="43"/>
-    </row>
-    <row r="43" spans="2:17" s="44" customFormat="1" ht="30">
-      <c r="B43" s="37">
-        <v>300039</v>
-      </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="37">
-        <v>0</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="40">
-        <v>0</v>
-      </c>
-      <c r="G43" s="40">
-        <v>0</v>
-      </c>
-      <c r="H43" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="I43" s="40">
-        <v>0</v>
-      </c>
-      <c r="J43" s="40">
-        <v>3</v>
-      </c>
-      <c r="K43" s="40">
-        <v>0</v>
-      </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40">
-        <v>12</v>
-      </c>
-      <c r="P43" s="40">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="43"/>
-    </row>
-    <row r="44" spans="2:17" s="44" customFormat="1" ht="45">
-      <c r="B44" s="37">
-        <v>300040</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="37">
-        <v>0</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="40">
-        <v>0</v>
-      </c>
-      <c r="G44" s="40">
-        <v>0</v>
-      </c>
-      <c r="H44" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="I44" s="40">
-        <v>0</v>
-      </c>
-      <c r="J44" s="40">
-        <v>3</v>
-      </c>
-      <c r="K44" s="40">
-        <v>0</v>
-      </c>
-      <c r="L44" s="40"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40">
-        <v>18</v>
-      </c>
-      <c r="P44" s="40">
-        <v>12</v>
-      </c>
-      <c r="Q44" s="43"/>
-    </row>
-    <row r="45" spans="2:17" s="44" customFormat="1">
-      <c r="B45" s="37">
-        <v>300041</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="37">
-        <v>0</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="40">
-        <v>0</v>
-      </c>
-      <c r="G45" s="40">
-        <v>0</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="I45" s="40">
-        <v>0</v>
-      </c>
-      <c r="J45" s="40">
-        <v>3</v>
-      </c>
-      <c r="K45" s="40">
-        <v>0</v>
-      </c>
-      <c r="L45" s="40"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40">
-        <v>12</v>
-      </c>
-      <c r="P45" s="40">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="43"/>
-    </row>
-    <row r="46" spans="2:17" s="44" customFormat="1">
-      <c r="B46" s="37">
-        <v>300042</v>
-      </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="37">
-        <v>0</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="40">
-        <v>0</v>
-      </c>
-      <c r="G46" s="40">
-        <v>0</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="I46" s="40">
-        <v>0</v>
-      </c>
-      <c r="J46" s="40">
-        <v>3</v>
-      </c>
-      <c r="K46" s="40">
-        <v>0</v>
-      </c>
-      <c r="L46" s="40"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40">
-        <v>12</v>
-      </c>
-      <c r="P46" s="40">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="43"/>
-    </row>
-    <row r="47" spans="2:17" s="44" customFormat="1">
-      <c r="B47" s="37">
-        <v>300043</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="I47" s="40">
-        <v>0</v>
-      </c>
-      <c r="J47" s="40">
-        <v>3</v>
-      </c>
-      <c r="K47" s="40">
-        <v>0</v>
-      </c>
-      <c r="L47" s="40"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40">
-        <v>12</v>
-      </c>
-      <c r="P47" s="40">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="43"/>
-    </row>
-    <row r="48" spans="2:17" s="44" customFormat="1">
-      <c r="B48" s="37">
-        <v>300044</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="I48" s="40">
-        <v>0</v>
-      </c>
-      <c r="J48" s="40">
-        <v>3</v>
-      </c>
-      <c r="K48" s="40">
-        <v>0</v>
-      </c>
-      <c r="L48" s="40"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40">
-        <v>12</v>
-      </c>
-      <c r="P48" s="40">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="43"/>
-    </row>
-    <row r="49" spans="2:17" s="44" customFormat="1">
-      <c r="B49" s="37">
-        <v>300045</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="I49" s="40">
-        <v>0</v>
-      </c>
-      <c r="J49" s="40">
-        <v>3</v>
-      </c>
-      <c r="K49" s="40">
-        <v>0</v>
-      </c>
-      <c r="L49" s="40"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40">
-        <v>12</v>
-      </c>
-      <c r="P49" s="40">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="43"/>
-    </row>
-    <row r="50" spans="2:17" s="44" customFormat="1">
-      <c r="B50" s="37">
-        <v>300046</v>
-      </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="I50" s="40">
-        <v>0</v>
-      </c>
-      <c r="J50" s="40">
-        <v>3</v>
-      </c>
-      <c r="K50" s="40">
-        <v>0</v>
-      </c>
-      <c r="L50" s="40"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40">
-        <v>12</v>
-      </c>
-      <c r="P50" s="40">
-        <v>8</v>
-      </c>
-      <c r="Q50" s="43"/>
-    </row>
-    <row r="51" spans="2:17" s="44" customFormat="1">
-      <c r="B51" s="37">
-        <v>300047</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="I51" s="40">
-        <v>0</v>
-      </c>
-      <c r="J51" s="40">
-        <v>3</v>
-      </c>
-      <c r="K51" s="40">
-        <v>0</v>
-      </c>
-      <c r="L51" s="40"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40">
-        <v>12</v>
-      </c>
-      <c r="P51" s="40">
-        <v>8</v>
-      </c>
-      <c r="Q51" s="43"/>
-    </row>
-    <row r="52" spans="2:17" s="44" customFormat="1">
-      <c r="B52" s="37">
-        <v>300048</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="I52" s="40">
-        <v>0</v>
-      </c>
-      <c r="J52" s="40">
-        <v>3</v>
-      </c>
-      <c r="K52" s="40">
-        <v>0</v>
-      </c>
-      <c r="L52" s="40"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40">
-        <v>12</v>
-      </c>
-      <c r="P52" s="40">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="43"/>
-    </row>
-    <row r="53" spans="2:17" s="44" customFormat="1">
-      <c r="B53" s="37">
-        <v>300049</v>
-      </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="I53" s="40">
-        <v>0</v>
-      </c>
-      <c r="J53" s="40">
-        <v>3</v>
-      </c>
-      <c r="K53" s="40">
-        <v>0</v>
-      </c>
-      <c r="L53" s="40"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40">
-        <v>18</v>
-      </c>
-      <c r="P53" s="40">
-        <v>12</v>
-      </c>
-      <c r="Q53" s="43"/>
-    </row>
-    <row r="54" spans="2:17">
+      <c r="P53" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="9"/>
     </row>
-    <row r="55" spans="2:17">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
     </row>
-    <row r="56" spans="2:17">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F2954-CC7C-4797-98AD-EFED04C2DD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1B92F-C810-4658-8037-43B42799A7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,35 +509,34 @@
     <t>230002</t>
   </si>
   <si>
-    <t>310125,310126,310127,310128</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>310090,310091,310092,310093,310094</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>310125,310126,310127,310128</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -545,7 +544,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -984,32 +983,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.73046875" customWidth="1"/>
-    <col min="2" max="2" width="19.265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.73046875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="24" customWidth="1"/>
     <col min="9" max="9" width="9" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.73046875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.265625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.59765625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="29.1328125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="11.73046875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="5.1328125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="4.1328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" style="5" customWidth="1"/>
     <col min="17" max="17" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="30">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="89.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="89.1" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
@@ -1209,7 +1208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="30">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
         <v>300001</v>
@@ -1254,7 +1253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="45">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
         <v>300002</v>
@@ -1299,7 +1298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <v>300003</v>
@@ -1344,7 +1343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="30">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
         <v>300004</v>
@@ -1392,7 +1391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="30">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <v>300005</v>
@@ -1440,7 +1439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="1" customFormat="1">
       <c r="A10" s="12"/>
       <c r="B10" s="13">
         <v>300006</v>
@@ -1483,7 +1482,7 @@
       </c>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="2" customFormat="1">
       <c r="A11" s="17"/>
       <c r="B11" s="18">
         <v>300007</v>
@@ -1530,7 +1529,7 @@
       </c>
       <c r="Q11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="45">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <v>300008</v>
@@ -1567,7 +1566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="8"/>
       <c r="B13" s="9">
         <v>300009</v>
@@ -1604,7 +1603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="30">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
         <v>300010</v>
@@ -1641,7 +1640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="30">
       <c r="A15" s="8"/>
       <c r="B15" s="9">
         <v>300011</v>
@@ -1678,7 +1677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="30">
       <c r="B16" s="9">
         <v>300012</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17">
       <c r="B17" s="9">
         <v>300013</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17">
       <c r="B18" s="9">
         <v>300014</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:17" s="36" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" s="36" customFormat="1" ht="30">
       <c r="B19" s="29">
         <v>300015</v>
       </c>
@@ -1823,7 +1822,7 @@
       </c>
       <c r="Q19" s="35"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17">
       <c r="B20" s="9">
         <v>300016</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="30">
       <c r="B21" s="9">
         <v>300017</v>
       </c>
@@ -1893,7 +1892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17">
       <c r="B22" s="9">
         <v>300018</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17">
       <c r="B23" s="9">
         <v>300019</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="30">
       <c r="B24" s="9">
         <v>300020</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17">
       <c r="B25" s="9">
         <v>300021</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17">
       <c r="B26" s="9">
         <v>300022</v>
       </c>
@@ -2068,7 +2067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="30">
       <c r="B27" s="9">
         <v>300023</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17">
       <c r="B28" s="9">
         <v>300024</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17">
       <c r="B29" s="9">
         <v>300025</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17">
       <c r="B30" s="9">
         <v>300026</v>
       </c>
@@ -2208,7 +2207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17">
       <c r="B31" s="9">
         <v>300027</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17">
       <c r="B32" s="9">
         <v>300028</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16">
       <c r="B33" s="9">
         <v>300029</v>
       </c>
@@ -2313,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16">
       <c r="B34" s="9">
         <v>300030</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16">
       <c r="B35" s="9">
         <v>300031</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16">
       <c r="B36" s="9">
         <v>300032</v>
       </c>
@@ -2418,7 +2417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" ht="45">
       <c r="B37" s="9">
         <v>300033</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" ht="30">
       <c r="B38" s="9">
         <v>300034</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I38" s="5">
         <v>0</v>
@@ -2488,7 +2487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" ht="45">
       <c r="B39" s="9">
         <v>300035</v>
       </c>
@@ -2523,7 +2522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" ht="45">
       <c r="B40" s="9">
         <v>300036</v>
       </c>
@@ -2558,7 +2557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" ht="45">
       <c r="B41" s="9">
         <v>300037</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I41" s="5">
         <v>0</v>
@@ -2593,7 +2592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16">
       <c r="B42" s="9">
         <v>300038</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" ht="30">
       <c r="B43" s="9">
         <v>300039</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" ht="45">
       <c r="B44" s="9">
         <v>300040</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16">
       <c r="B45" s="9">
         <v>300041</v>
       </c>
@@ -2733,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16">
       <c r="B46" s="9">
         <v>300042</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16">
       <c r="B47" s="9">
         <v>300043</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16">
       <c r="B48" s="9">
         <v>300044</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16">
       <c r="B49" s="9">
         <v>300045</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16">
       <c r="B50" s="9">
         <v>300046</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16">
       <c r="B51" s="9">
         <v>300047</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16">
       <c r="B52" s="9">
         <v>300048</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16">
       <c r="B53" s="9">
         <v>300049</v>
       </c>
@@ -2950,13 +2949,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16">
       <c r="B54" s="9"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16">
       <c r="B55" s="9"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16">
       <c r="B56" s="9"/>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Rooms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1B92F-C810-4658-8037-43B42799A7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF247B-C284-46F9-91C3-445A8C11EAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="2400" windowWidth="21450" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,14 +506,14 @@
     <t>Natalia</t>
   </si>
   <si>
-    <t>230002</t>
-  </si>
-  <si>
     <t>310090,310091,310092,310093,310094</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>310125,310126,310127,310128</t>
+  </si>
+  <si>
+    <t>230001</t>
   </si>
 </sst>
 </file>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N11" s="20">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I38" s="5">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I41" s="5">
         <v>0</v>
